--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8187B-1A63-8A48-9987-E73F4AFA73D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB2B217-76C8-EA41-A58D-9E424E8C6947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FDA_DTS_2020" sheetId="1" r:id="rId1"/>
+    <sheet name="FDA_Drug_Trials_Snapshots_2015-" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FDA_DTS_2020!$A$1:$W$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDA_Drug_Trials_Snapshots_2015-'!$A$1:$W$289</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="651">
   <si>
     <t>Brand_Name</t>
   </si>
@@ -1981,9 +1981,6 @@
   </si>
   <si>
     <t>Treatment of rare conditions related to premature aging</t>
-  </si>
-  <si>
-    <t>NR</t>
   </si>
   <si>
     <t>Infectious Disease</t>
@@ -2847,8 +2844,8 @@
   <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14379,7 +14376,7 @@
         <v>551</v>
       </c>
       <c r="B237" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F237" t="s">
         <v>552</v>
@@ -14387,20 +14384,11 @@
       <c r="G237">
         <v>2020</v>
       </c>
+      <c r="H237">
+        <v>100</v>
+      </c>
       <c r="M237">
         <v>26</v>
-      </c>
-      <c r="N237" t="s">
-        <v>649</v>
-      </c>
-      <c r="O237" t="s">
-        <v>649</v>
-      </c>
-      <c r="P237" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>649</v>
       </c>
       <c r="S237">
         <v>3</v>
@@ -14425,6 +14413,9 @@
       <c r="G238">
         <v>2020</v>
       </c>
+      <c r="H238">
+        <v>100</v>
+      </c>
       <c r="M238">
         <v>39</v>
       </c>
@@ -14463,6 +14454,9 @@
       <c r="G239">
         <v>2020</v>
       </c>
+      <c r="H239">
+        <v>100</v>
+      </c>
       <c r="M239">
         <v>88</v>
       </c>
@@ -14501,6 +14495,9 @@
       <c r="G240">
         <v>2020</v>
       </c>
+      <c r="H240">
+        <v>100</v>
+      </c>
       <c r="M240">
         <v>47</v>
       </c>
@@ -14539,6 +14536,9 @@
       <c r="G241">
         <v>2020</v>
       </c>
+      <c r="H241">
+        <v>100</v>
+      </c>
       <c r="M241">
         <v>52</v>
       </c>
@@ -14577,6 +14577,9 @@
       <c r="G242">
         <v>2020</v>
       </c>
+      <c r="H242">
+        <v>100</v>
+      </c>
       <c r="M242">
         <v>100</v>
       </c>
@@ -14591,9 +14594,6 @@
       </c>
       <c r="Q242">
         <v>0</v>
-      </c>
-      <c r="S242" t="s">
-        <v>649</v>
       </c>
       <c r="V242">
         <v>17</v>
@@ -14615,6 +14615,9 @@
       <c r="G243">
         <v>2020</v>
       </c>
+      <c r="H243">
+        <v>100</v>
+      </c>
       <c r="M243">
         <v>37</v>
       </c>
@@ -14653,6 +14656,9 @@
       <c r="G244">
         <v>2020</v>
       </c>
+      <c r="H244">
+        <v>100</v>
+      </c>
       <c r="M244">
         <v>48</v>
       </c>
@@ -14691,6 +14697,9 @@
       <c r="G245">
         <v>2020</v>
       </c>
+      <c r="H245">
+        <v>100</v>
+      </c>
       <c r="M245">
         <v>48</v>
       </c>
@@ -14721,13 +14730,16 @@
         <v>569</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F246" t="s">
         <v>570</v>
       </c>
       <c r="G246">
         <v>2020</v>
+      </c>
+      <c r="H246">
+        <v>100</v>
       </c>
       <c r="M246">
         <v>3</v>
@@ -14767,6 +14779,9 @@
       <c r="G247">
         <v>2020</v>
       </c>
+      <c r="H247">
+        <v>100</v>
+      </c>
       <c r="M247">
         <v>91</v>
       </c>
@@ -14781,9 +14796,6 @@
       </c>
       <c r="Q247">
         <v>9</v>
-      </c>
-      <c r="S247" t="s">
-        <v>649</v>
       </c>
       <c r="V247">
         <v>29</v>
@@ -14805,6 +14817,9 @@
       <c r="G248">
         <v>2020</v>
       </c>
+      <c r="H248">
+        <v>100</v>
+      </c>
       <c r="M248">
         <v>53</v>
       </c>
@@ -14843,6 +14858,9 @@
       <c r="G249">
         <v>2020</v>
       </c>
+      <c r="H249">
+        <v>100</v>
+      </c>
       <c r="M249">
         <v>0</v>
       </c>
@@ -14881,6 +14899,9 @@
       <c r="G250">
         <v>2020</v>
       </c>
+      <c r="H250">
+        <v>100</v>
+      </c>
       <c r="M250">
         <v>52</v>
       </c>
@@ -14911,13 +14932,16 @@
         <v>579</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F251" t="s">
         <v>580</v>
       </c>
       <c r="G251">
         <v>2020</v>
+      </c>
+      <c r="H251">
+        <v>100</v>
       </c>
       <c r="M251">
         <v>85</v>
@@ -14957,6 +14981,9 @@
       <c r="G252">
         <v>2020</v>
       </c>
+      <c r="H252">
+        <v>100</v>
+      </c>
       <c r="M252">
         <v>52</v>
       </c>
@@ -14987,7 +15014,7 @@
         <v>583</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F253" t="s">
         <v>570</v>
@@ -14995,23 +15022,11 @@
       <c r="G253">
         <v>2020</v>
       </c>
+      <c r="H253">
+        <v>100</v>
+      </c>
       <c r="M253">
         <v>55</v>
-      </c>
-      <c r="N253" t="s">
-        <v>649</v>
-      </c>
-      <c r="O253" t="s">
-        <v>649</v>
-      </c>
-      <c r="P253" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>649</v>
-      </c>
-      <c r="S253" t="s">
-        <v>649</v>
       </c>
       <c r="V253">
         <v>0</v>
@@ -15033,6 +15048,9 @@
       <c r="G254">
         <v>2020</v>
       </c>
+      <c r="H254">
+        <v>100</v>
+      </c>
       <c r="M254">
         <v>31</v>
       </c>
@@ -15071,6 +15089,9 @@
       <c r="G255">
         <v>2020</v>
       </c>
+      <c r="H255">
+        <v>100</v>
+      </c>
       <c r="M255">
         <v>77</v>
       </c>
@@ -15109,6 +15130,9 @@
       <c r="G256">
         <v>2020</v>
       </c>
+      <c r="H256">
+        <v>100</v>
+      </c>
       <c r="M256">
         <v>13</v>
       </c>
@@ -15147,6 +15171,9 @@
       <c r="G257">
         <v>2020</v>
       </c>
+      <c r="H257">
+        <v>100</v>
+      </c>
       <c r="M257">
         <v>40</v>
       </c>
@@ -15177,13 +15204,16 @@
         <v>592</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F258" t="s">
         <v>546</v>
       </c>
       <c r="G258">
         <v>2020</v>
+      </c>
+      <c r="H258">
+        <v>100</v>
       </c>
       <c r="M258">
         <v>54</v>
@@ -15223,6 +15253,9 @@
       <c r="G259">
         <v>2020</v>
       </c>
+      <c r="H259">
+        <v>100</v>
+      </c>
       <c r="M259">
         <v>99</v>
       </c>
@@ -15261,6 +15294,9 @@
       <c r="G260">
         <v>2020</v>
       </c>
+      <c r="H260">
+        <v>100</v>
+      </c>
       <c r="M260">
         <v>46</v>
       </c>
@@ -15272,9 +15308,6 @@
       </c>
       <c r="P260">
         <v>3</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>649</v>
       </c>
       <c r="S260">
         <v>69</v>
@@ -15299,6 +15332,9 @@
       <c r="G261">
         <v>2020</v>
       </c>
+      <c r="H261">
+        <v>100</v>
+      </c>
       <c r="M261">
         <v>29</v>
       </c>
@@ -15337,6 +15373,9 @@
       <c r="G262">
         <v>2020</v>
       </c>
+      <c r="H262">
+        <v>100</v>
+      </c>
       <c r="M262">
         <v>85</v>
       </c>
@@ -15375,6 +15414,9 @@
       <c r="G263">
         <v>2020</v>
       </c>
+      <c r="H263">
+        <v>100</v>
+      </c>
       <c r="M263">
         <v>79</v>
       </c>
@@ -15413,6 +15455,9 @@
       <c r="G264">
         <v>2020</v>
       </c>
+      <c r="H264">
+        <v>100</v>
+      </c>
       <c r="M264">
         <v>42</v>
       </c>
@@ -15424,9 +15469,6 @@
       </c>
       <c r="P264">
         <v>14</v>
-      </c>
-      <c r="Q264" t="s">
-        <v>649</v>
       </c>
       <c r="S264">
         <v>48</v>
@@ -15451,6 +15493,9 @@
       <c r="G265">
         <v>2020</v>
       </c>
+      <c r="H265">
+        <v>100</v>
+      </c>
       <c r="M265">
         <v>0</v>
       </c>
@@ -15489,6 +15534,9 @@
       <c r="G266">
         <v>2020</v>
       </c>
+      <c r="H266">
+        <v>100</v>
+      </c>
       <c r="M266">
         <v>66</v>
       </c>
@@ -15527,6 +15575,9 @@
       <c r="G267">
         <v>2020</v>
       </c>
+      <c r="H267">
+        <v>100</v>
+      </c>
       <c r="M267">
         <v>40</v>
       </c>
@@ -15565,6 +15616,9 @@
       <c r="G268">
         <v>2020</v>
       </c>
+      <c r="H268">
+        <v>100</v>
+      </c>
       <c r="M268">
         <v>57</v>
       </c>
@@ -15603,6 +15657,9 @@
       <c r="G269">
         <v>2020</v>
       </c>
+      <c r="H269">
+        <v>100</v>
+      </c>
       <c r="M269">
         <v>76</v>
       </c>
@@ -15641,6 +15698,9 @@
       <c r="G270">
         <v>2020</v>
       </c>
+      <c r="H270">
+        <v>100</v>
+      </c>
       <c r="M270">
         <v>43</v>
       </c>
@@ -15679,6 +15739,9 @@
       <c r="G271">
         <v>2020</v>
       </c>
+      <c r="H271">
+        <v>100</v>
+      </c>
       <c r="M271">
         <v>48</v>
       </c>
@@ -15709,13 +15772,16 @@
         <v>618</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F272" t="s">
         <v>619</v>
       </c>
       <c r="G272">
         <v>2020</v>
+      </c>
+      <c r="H272">
+        <v>100</v>
       </c>
       <c r="M272">
         <v>26</v>
@@ -15755,6 +15821,9 @@
       <c r="G273">
         <v>2020</v>
       </c>
+      <c r="H273">
+        <v>100</v>
+      </c>
       <c r="M273">
         <v>48</v>
       </c>
@@ -15793,6 +15862,9 @@
       <c r="G274">
         <v>2020</v>
       </c>
+      <c r="H274">
+        <v>100</v>
+      </c>
       <c r="M274">
         <v>52</v>
       </c>
@@ -15831,6 +15903,9 @@
       <c r="G275">
         <v>2020</v>
       </c>
+      <c r="H275">
+        <v>100</v>
+      </c>
       <c r="M275">
         <v>41</v>
       </c>
@@ -15869,6 +15944,9 @@
       <c r="G276">
         <v>2020</v>
       </c>
+      <c r="H276">
+        <v>100</v>
+      </c>
       <c r="M276">
         <v>50</v>
       </c>
@@ -15907,6 +15985,9 @@
       <c r="G277">
         <v>2020</v>
       </c>
+      <c r="H277">
+        <v>100</v>
+      </c>
       <c r="M277">
         <v>37</v>
       </c>
@@ -15945,6 +16026,9 @@
       <c r="G278">
         <v>2020</v>
       </c>
+      <c r="H278">
+        <v>100</v>
+      </c>
       <c r="M278">
         <v>73</v>
       </c>
@@ -15983,6 +16067,9 @@
       <c r="G279">
         <v>2020</v>
       </c>
+      <c r="H279">
+        <v>100</v>
+      </c>
       <c r="M279">
         <v>99</v>
       </c>
@@ -16021,6 +16108,9 @@
       <c r="G280">
         <v>2020</v>
       </c>
+      <c r="H280">
+        <v>100</v>
+      </c>
       <c r="M280">
         <v>99</v>
       </c>
@@ -16059,6 +16149,9 @@
       <c r="G281">
         <v>2020</v>
       </c>
+      <c r="H281">
+        <v>100</v>
+      </c>
       <c r="M281">
         <v>94</v>
       </c>
@@ -16089,13 +16182,16 @@
         <v>634</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F282" t="s">
         <v>635</v>
       </c>
       <c r="G282">
         <v>2020</v>
+      </c>
+      <c r="H282">
+        <v>100</v>
       </c>
       <c r="M282">
         <v>37</v>
@@ -16135,6 +16231,9 @@
       <c r="G283">
         <v>2020</v>
       </c>
+      <c r="H283">
+        <v>100</v>
+      </c>
       <c r="M283">
         <v>0</v>
       </c>
@@ -16173,6 +16272,9 @@
       <c r="G284">
         <v>2020</v>
       </c>
+      <c r="H284">
+        <v>100</v>
+      </c>
       <c r="M284">
         <v>87</v>
       </c>
@@ -16211,6 +16313,9 @@
       <c r="G285">
         <v>2020</v>
       </c>
+      <c r="H285">
+        <v>100</v>
+      </c>
       <c r="M285">
         <v>63</v>
       </c>
@@ -16249,6 +16354,9 @@
       <c r="G286">
         <v>2020</v>
       </c>
+      <c r="H286">
+        <v>100</v>
+      </c>
       <c r="M286">
         <v>84</v>
       </c>
@@ -16287,6 +16395,9 @@
       <c r="G287">
         <v>2020</v>
       </c>
+      <c r="H287">
+        <v>100</v>
+      </c>
       <c r="M287">
         <v>67</v>
       </c>
@@ -16325,6 +16436,9 @@
       <c r="G288">
         <v>2020</v>
       </c>
+      <c r="H288">
+        <v>100</v>
+      </c>
       <c r="M288">
         <v>40</v>
       </c>
@@ -16336,9 +16450,6 @@
       </c>
       <c r="P288">
         <v>1</v>
-      </c>
-      <c r="Q288" t="s">
-        <v>649</v>
       </c>
       <c r="S288">
         <v>35</v>
@@ -16363,20 +16474,11 @@
       <c r="G289">
         <v>2020</v>
       </c>
+      <c r="H289">
+        <v>100</v>
+      </c>
       <c r="M289">
         <v>48</v>
-      </c>
-      <c r="N289" t="s">
-        <v>649</v>
-      </c>
-      <c r="O289" t="s">
-        <v>649</v>
-      </c>
-      <c r="P289" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q289" t="s">
-        <v>649</v>
       </c>
       <c r="S289">
         <v>0</v>

--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB2B217-76C8-EA41-A58D-9E424E8C6947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2952C4-0350-2A4F-B1A9-2A63D51BE543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2844,8 +2844,8 @@
   <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2952C4-0350-2A4F-B1A9-2A63D51BE543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3858147-67AF-FC41-9903-AD6599A59A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="650">
   <si>
     <t>Brand_Name</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>PRETOMANID</t>
-  </si>
-  <si>
-    <t>Infectious Diseases</t>
   </si>
   <si>
     <t>Other Infectious Diseases</t>
@@ -1993,7 +1990,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2132,6 +2129,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2481,11 +2485,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2845,10 +2850,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3111,13 +3119,13 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
       <c r="G6">
         <v>2019</v>
@@ -3158,16 +3166,16 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -3214,16 +3222,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
       </c>
       <c r="G8">
         <v>2015</v>
@@ -3261,16 +3269,16 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
       </c>
       <c r="G9">
         <v>2015</v>
@@ -3308,16 +3316,16 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
       </c>
       <c r="G10">
         <v>2019</v>
@@ -3364,7 +3372,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -3373,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>2019</v>
@@ -3420,16 +3428,16 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
       </c>
       <c r="G12">
         <v>2017</v>
@@ -3464,16 +3472,16 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
       </c>
       <c r="G13">
         <v>2019</v>
@@ -3482,7 +3490,7 @@
         <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -3520,16 +3528,16 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
       </c>
       <c r="G14">
         <v>2018</v>
@@ -3547,7 +3555,7 @@
         <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14">
         <v>42</v>
@@ -3576,16 +3584,16 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
       </c>
       <c r="G15">
         <v>2015</v>
@@ -3623,16 +3631,16 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
       </c>
       <c r="G16">
         <v>2018</v>
@@ -3650,7 +3658,7 @@
         <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16">
         <v>48</v>
@@ -3679,16 +3687,16 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
       </c>
       <c r="G17">
         <v>2018</v>
@@ -3706,7 +3714,7 @@
         <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17">
         <v>46</v>
@@ -3735,16 +3743,16 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
       </c>
       <c r="G18">
         <v>2017</v>
@@ -3779,16 +3787,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
       </c>
       <c r="G19">
         <v>2016</v>
@@ -3820,16 +3828,16 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>648</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>85</v>
       </c>
       <c r="G20">
         <v>2017</v>
@@ -3864,16 +3872,16 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
         <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
       </c>
       <c r="G21">
         <v>2015</v>
@@ -3902,16 +3910,16 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>89</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -3920,7 +3928,7 @@
         <v>1207</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -3958,16 +3966,16 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>95</v>
       </c>
       <c r="G23">
         <v>2018</v>
@@ -3985,7 +3993,7 @@
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M23">
         <v>50</v>
@@ -4014,13 +4022,13 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>97</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
       </c>
       <c r="G24">
         <v>2018</v>
@@ -4038,7 +4046,7 @@
         <v>32</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M24">
         <v>50</v>
@@ -4067,16 +4075,16 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>648</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
       </c>
       <c r="G25">
         <v>2018</v>
@@ -4123,16 +4131,16 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
         <v>102</v>
-      </c>
-      <c r="F26" t="s">
-        <v>103</v>
       </c>
       <c r="G26">
         <v>2018</v>
@@ -4150,7 +4158,7 @@
         <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26">
         <v>61</v>
@@ -4179,19 +4187,19 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>105</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>106</v>
-      </c>
-      <c r="F27" t="s">
-        <v>107</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -4209,7 +4217,7 @@
         <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27">
         <v>50</v>
@@ -4238,19 +4246,19 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
         <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" t="s">
-        <v>109</v>
       </c>
       <c r="G28">
         <v>2017</v>
@@ -4285,16 +4293,16 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>110</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
       </c>
       <c r="G29">
         <v>2016</v>
@@ -4326,13 +4334,13 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30">
         <v>2019</v>
@@ -4379,19 +4387,19 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
         <v>114</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" t="s">
-        <v>115</v>
       </c>
       <c r="G31">
         <v>2018</v>
@@ -4409,7 +4417,7 @@
         <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M31">
         <v>53</v>
@@ -4438,13 +4446,13 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
         <v>118</v>
-      </c>
-      <c r="F32" t="s">
-        <v>119</v>
       </c>
       <c r="G32">
         <v>2019</v>
@@ -4462,7 +4470,7 @@
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M32">
         <v>49</v>
@@ -4491,16 +4499,16 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" t="s">
-        <v>122</v>
       </c>
       <c r="G33">
         <v>2019</v>
@@ -4547,16 +4555,16 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
         <v>73</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
       </c>
       <c r="G34">
         <v>2019</v>
@@ -4574,7 +4582,7 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M34">
         <v>47</v>
@@ -4603,16 +4611,16 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
         <v>124</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
       </c>
       <c r="G35">
         <v>2017</v>
@@ -4647,16 +4655,16 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36">
         <v>2019</v>
@@ -4674,7 +4682,7 @@
         <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M36">
         <v>67</v>
@@ -4703,19 +4711,19 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>129</v>
-      </c>
-      <c r="F37" t="s">
-        <v>130</v>
       </c>
       <c r="G37">
         <v>2018</v>
@@ -4733,7 +4741,7 @@
         <v>32</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M37">
         <v>38</v>
@@ -4762,13 +4770,13 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
         <v>131</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>132</v>
-      </c>
-      <c r="F38" t="s">
-        <v>133</v>
       </c>
       <c r="G38">
         <v>2017</v>
@@ -4803,16 +4811,16 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>135</v>
-      </c>
-      <c r="F39" t="s">
-        <v>136</v>
       </c>
       <c r="G39">
         <v>2018</v>
@@ -4830,7 +4838,7 @@
         <v>33</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M39">
         <v>70</v>
@@ -4859,13 +4867,13 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
         <v>137</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" t="s">
-        <v>138</v>
       </c>
       <c r="G40">
         <v>2018</v>
@@ -4883,7 +4891,7 @@
         <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M40">
         <v>51</v>
@@ -4912,13 +4920,13 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" t="s">
         <v>139</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" t="s">
-        <v>140</v>
       </c>
       <c r="G41">
         <v>2019</v>
@@ -4965,16 +4973,16 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
         <v>141</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" t="s">
-        <v>142</v>
       </c>
       <c r="G42">
         <v>2018</v>
@@ -4992,7 +5000,7 @@
         <v>32</v>
       </c>
       <c r="L42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M42">
         <v>49</v>
@@ -5021,16 +5029,16 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
         <v>143</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" t="s">
-        <v>144</v>
       </c>
       <c r="G43">
         <v>2018</v>
@@ -5048,7 +5056,7 @@
         <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M43">
         <v>23</v>
@@ -5077,16 +5085,16 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
         <v>145</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" t="s">
-        <v>146</v>
       </c>
       <c r="G44">
         <v>2018</v>
@@ -5133,16 +5141,16 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>148</v>
       </c>
       <c r="G45">
         <v>2016</v>
@@ -5174,16 +5182,16 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s">
         <v>73</v>
-      </c>
-      <c r="F46" t="s">
-        <v>74</v>
       </c>
       <c r="G46">
         <v>2015</v>
@@ -5221,16 +5229,16 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
         <v>150</v>
       </c>
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>151</v>
-      </c>
-      <c r="F47" t="s">
-        <v>152</v>
       </c>
       <c r="G47">
         <v>2017</v>
@@ -5265,16 +5273,16 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
         <v>153</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" t="s">
-        <v>154</v>
       </c>
       <c r="G48">
         <v>2018</v>
@@ -5292,7 +5300,7 @@
         <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M48">
         <v>64</v>
@@ -5321,16 +5329,16 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
       </c>
       <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
         <v>121</v>
-      </c>
-      <c r="F49" t="s">
-        <v>122</v>
       </c>
       <c r="G49">
         <v>2019</v>
@@ -5377,16 +5385,16 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>648</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
         <v>156</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" t="s">
-        <v>157</v>
       </c>
       <c r="G50">
         <v>2018</v>
@@ -5433,16 +5441,16 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
         <v>158</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>159</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>160</v>
-      </c>
-      <c r="F51" t="s">
-        <v>161</v>
       </c>
       <c r="G51">
         <v>2019</v>
@@ -5486,19 +5494,19 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
         <v>162</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>163</v>
-      </c>
-      <c r="F52" t="s">
-        <v>164</v>
       </c>
       <c r="G52">
         <v>2017</v>
@@ -5533,13 +5541,13 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
         <v>165</v>
-      </c>
-      <c r="B53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" t="s">
-        <v>166</v>
       </c>
       <c r="G53">
         <v>2017</v>
@@ -5574,16 +5582,16 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54">
         <v>2018</v>
@@ -5601,7 +5609,7 @@
         <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M54">
         <v>47</v>
@@ -5630,13 +5638,13 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" t="s">
         <v>169</v>
       </c>
-      <c r="B55" t="s">
+      <c r="F55" t="s">
         <v>170</v>
-      </c>
-      <c r="F55" t="s">
-        <v>171</v>
       </c>
       <c r="G55">
         <v>2019</v>
@@ -5654,7 +5662,7 @@
         <v>32</v>
       </c>
       <c r="L55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M55">
         <v>100</v>
@@ -5683,16 +5691,16 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G56">
         <v>2019</v>
@@ -5710,7 +5718,7 @@
         <v>32</v>
       </c>
       <c r="L56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M56">
         <v>68</v>
@@ -5739,16 +5747,16 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G57">
         <v>2018</v>
@@ -5766,7 +5774,7 @@
         <v>32</v>
       </c>
       <c r="L57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M57">
         <v>85</v>
@@ -5795,16 +5803,16 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>648</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
         <v>176</v>
-      </c>
-      <c r="B58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s">
-        <v>177</v>
       </c>
       <c r="G58">
         <v>2016</v>
@@ -5836,16 +5844,16 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>648</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s">
         <v>178</v>
-      </c>
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" t="s">
-        <v>179</v>
       </c>
       <c r="G59">
         <v>2015</v>
@@ -5883,13 +5891,13 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
         <v>180</v>
-      </c>
-      <c r="B60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60" t="s">
-        <v>181</v>
       </c>
       <c r="G60">
         <v>2019</v>
@@ -5907,7 +5915,7 @@
         <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M60">
         <v>91</v>
@@ -5936,16 +5944,16 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G61">
         <v>2018</v>
@@ -5992,16 +6000,16 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>648</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s">
         <v>184</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" t="s">
-        <v>185</v>
       </c>
       <c r="G62">
         <v>2018</v>
@@ -6048,16 +6056,16 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>187</v>
-      </c>
-      <c r="F63" t="s">
-        <v>188</v>
       </c>
       <c r="G63">
         <v>2018</v>
@@ -6075,7 +6083,7 @@
         <v>32</v>
       </c>
       <c r="L63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M63">
         <v>60</v>
@@ -6104,16 +6112,16 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>648</v>
+      </c>
+      <c r="D64" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>190</v>
-      </c>
-      <c r="F64" t="s">
-        <v>191</v>
       </c>
       <c r="G64">
         <v>2016</v>
@@ -6145,13 +6153,13 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" t="s">
         <v>192</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" t="s">
-        <v>193</v>
       </c>
       <c r="G65">
         <v>2019</v>
@@ -6198,13 +6206,13 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G66">
         <v>2017</v>
@@ -6239,16 +6247,16 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" t="s">
         <v>196</v>
-      </c>
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" t="s">
-        <v>197</v>
       </c>
       <c r="G67">
         <v>2017</v>
@@ -6283,19 +6291,19 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" t="s">
         <v>198</v>
       </c>
-      <c r="B68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>199</v>
-      </c>
-      <c r="F68" t="s">
-        <v>200</v>
       </c>
       <c r="G68">
         <v>2018</v>
@@ -6313,7 +6321,7 @@
         <v>32</v>
       </c>
       <c r="L68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M68">
         <v>35</v>
@@ -6342,13 +6350,13 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" t="s">
         <v>201</v>
-      </c>
-      <c r="B69" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" t="s">
-        <v>202</v>
       </c>
       <c r="G69">
         <v>2019</v>
@@ -6395,13 +6403,13 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" t="s">
         <v>203</v>
-      </c>
-      <c r="B70" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" t="s">
-        <v>204</v>
       </c>
       <c r="G70">
         <v>2018</v>
@@ -6419,7 +6427,7 @@
         <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M70">
         <v>29</v>
@@ -6448,16 +6456,16 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>648</v>
+      </c>
+      <c r="D71" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" t="s">
         <v>205</v>
-      </c>
-      <c r="B71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" t="s">
-        <v>190</v>
-      </c>
-      <c r="F71" t="s">
-        <v>206</v>
       </c>
       <c r="G71">
         <v>2017</v>
@@ -6492,16 +6500,16 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" t="s">
         <v>207</v>
-      </c>
-      <c r="B72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" t="s">
-        <v>208</v>
       </c>
       <c r="G72">
         <v>2018</v>
@@ -6510,7 +6518,7 @@
         <v>431</v>
       </c>
       <c r="I72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J72" t="s">
         <v>33</v>
@@ -6519,7 +6527,7 @@
         <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M72">
         <v>98</v>
@@ -6548,16 +6556,16 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
         <v>209</v>
       </c>
-      <c r="B73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>210</v>
-      </c>
-      <c r="F73" t="s">
-        <v>211</v>
       </c>
       <c r="G73">
         <v>2019</v>
@@ -6575,7 +6583,7 @@
         <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M73">
         <v>55</v>
@@ -6604,16 +6612,16 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>648</v>
+      </c>
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
         <v>212</v>
-      </c>
-      <c r="B74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" t="s">
-        <v>44</v>
-      </c>
-      <c r="F74" t="s">
-        <v>213</v>
       </c>
       <c r="G74">
         <v>2019</v>
@@ -6631,7 +6639,7 @@
         <v>32</v>
       </c>
       <c r="L74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M74">
         <v>44</v>
@@ -6660,13 +6668,13 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
         <v>214</v>
       </c>
-      <c r="B75" t="s">
+      <c r="F75" t="s">
         <v>215</v>
-      </c>
-      <c r="F75" t="s">
-        <v>216</v>
       </c>
       <c r="G75">
         <v>2018</v>
@@ -6684,7 +6692,7 @@
         <v>32</v>
       </c>
       <c r="L75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M75">
         <v>62</v>
@@ -6710,19 +6718,19 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" t="s">
         <v>217</v>
       </c>
-      <c r="B76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>218</v>
-      </c>
-      <c r="F76" t="s">
-        <v>219</v>
       </c>
       <c r="G76">
         <v>2019</v>
@@ -6769,16 +6777,16 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
         <v>220</v>
       </c>
-      <c r="B77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>221</v>
-      </c>
-      <c r="F77" t="s">
-        <v>222</v>
       </c>
       <c r="G77">
         <v>2017</v>
@@ -6810,16 +6818,16 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G78">
         <v>2018</v>
@@ -6837,7 +6845,7 @@
         <v>33</v>
       </c>
       <c r="L78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M78">
         <v>87</v>
@@ -6866,16 +6874,16 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
         <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G79">
         <v>2017</v>
@@ -6910,16 +6918,16 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" t="s">
         <v>226</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" t="s">
-        <v>227</v>
       </c>
       <c r="G80">
         <v>2019</v>
@@ -6928,7 +6936,7 @@
         <v>1509</v>
       </c>
       <c r="I80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J80" t="s">
         <v>33</v>
@@ -6937,7 +6945,7 @@
         <v>32</v>
       </c>
       <c r="L80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -6966,19 +6974,19 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" t="s">
         <v>228</v>
-      </c>
-      <c r="B81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" t="s">
-        <v>105</v>
-      </c>
-      <c r="E81" t="s">
-        <v>199</v>
-      </c>
-      <c r="F81" t="s">
-        <v>229</v>
       </c>
       <c r="G81">
         <v>2016</v>
@@ -7010,16 +7018,16 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" t="s">
         <v>73</v>
-      </c>
-      <c r="F82" t="s">
-        <v>74</v>
       </c>
       <c r="G82">
         <v>2015</v>
@@ -7057,16 +7065,16 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="D83" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" t="s">
         <v>232</v>
-      </c>
-      <c r="F83" t="s">
-        <v>233</v>
       </c>
       <c r="G83">
         <v>2017</v>
@@ -7101,16 +7109,16 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" t="s">
         <v>234</v>
-      </c>
-      <c r="B84" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" t="s">
-        <v>151</v>
-      </c>
-      <c r="F84" t="s">
-        <v>235</v>
       </c>
       <c r="G84">
         <v>2019</v>
@@ -7119,7 +7127,7 @@
         <v>234</v>
       </c>
       <c r="I84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J84" t="s">
         <v>33</v>
@@ -7128,7 +7136,7 @@
         <v>32</v>
       </c>
       <c r="L84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M84">
         <v>100</v>
@@ -7157,16 +7165,16 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" t="s">
+        <v>648</v>
+      </c>
+      <c r="D85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
         <v>236</v>
-      </c>
-      <c r="B85" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" t="s">
-        <v>237</v>
       </c>
       <c r="G85">
         <v>2018</v>
@@ -7184,7 +7192,7 @@
         <v>33</v>
       </c>
       <c r="L85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M85">
         <v>25</v>
@@ -7213,7 +7221,7 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
@@ -7222,7 +7230,7 @@
         <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G86">
         <v>2018</v>
@@ -7240,7 +7248,7 @@
         <v>32</v>
       </c>
       <c r="L86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M86">
         <v>26</v>
@@ -7269,19 +7277,19 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" t="s">
         <v>241</v>
-      </c>
-      <c r="B87" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87" t="s">
-        <v>106</v>
-      </c>
-      <c r="F87" t="s">
-        <v>242</v>
       </c>
       <c r="G87">
         <v>2017</v>
@@ -7316,16 +7324,16 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G88">
         <v>2017</v>
@@ -7360,16 +7368,16 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G89">
         <v>2019</v>
@@ -7387,7 +7395,7 @@
         <v>33</v>
       </c>
       <c r="L89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M89">
         <v>49</v>
@@ -7416,13 +7424,13 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" t="s">
         <v>247</v>
-      </c>
-      <c r="B90" t="s">
-        <v>215</v>
-      </c>
-      <c r="F90" t="s">
-        <v>248</v>
       </c>
       <c r="G90">
         <v>2017</v>
@@ -7457,7 +7465,7 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
         <v>24</v>
@@ -7466,7 +7474,7 @@
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G91">
         <v>2018</v>
@@ -7484,7 +7492,7 @@
         <v>33</v>
       </c>
       <c r="L91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M91">
         <v>61</v>
@@ -7513,16 +7521,16 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" t="s">
         <v>251</v>
-      </c>
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" t="s">
-        <v>94</v>
-      </c>
-      <c r="F92" t="s">
-        <v>252</v>
       </c>
       <c r="G92">
         <v>2017</v>
@@ -7557,16 +7565,16 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" t="s">
         <v>253</v>
-      </c>
-      <c r="B93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" t="s">
-        <v>53</v>
-      </c>
-      <c r="F93" t="s">
-        <v>254</v>
       </c>
       <c r="G93">
         <v>2019</v>
@@ -7584,7 +7592,7 @@
         <v>33</v>
       </c>
       <c r="L93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M93">
         <v>59</v>
@@ -7613,7 +7621,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
         <v>24</v>
@@ -7622,7 +7630,7 @@
         <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G94">
         <v>2018</v>
@@ -7640,7 +7648,7 @@
         <v>32</v>
       </c>
       <c r="L94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M94">
         <v>31</v>
@@ -7669,16 +7677,16 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G95">
         <v>2017</v>
@@ -7713,13 +7721,13 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" t="s">
         <v>258</v>
-      </c>
-      <c r="B96" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" t="s">
-        <v>259</v>
       </c>
       <c r="G96">
         <v>2019</v>
@@ -7737,7 +7745,7 @@
         <v>32</v>
       </c>
       <c r="L96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M96">
         <v>30</v>
@@ -7766,16 +7774,16 @@
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" t="s">
+        <v>648</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
         <v>260</v>
-      </c>
-      <c r="B97" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" t="s">
-        <v>261</v>
       </c>
       <c r="G97">
         <v>2015</v>
@@ -7813,13 +7821,13 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" t="s">
         <v>262</v>
-      </c>
-      <c r="B98" t="s">
-        <v>170</v>
-      </c>
-      <c r="F98" t="s">
-        <v>263</v>
       </c>
       <c r="G98">
         <v>2018</v>
@@ -7828,7 +7836,7 @@
         <v>1686</v>
       </c>
       <c r="I98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J98" t="s">
         <v>33</v>
@@ -7837,7 +7845,7 @@
         <v>32</v>
       </c>
       <c r="L98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M98">
         <v>100</v>
@@ -7866,13 +7874,13 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" t="s">
         <v>264</v>
       </c>
-      <c r="B99" t="s">
+      <c r="F99" t="s">
         <v>265</v>
-      </c>
-      <c r="F99" t="s">
-        <v>266</v>
       </c>
       <c r="G99">
         <v>2019</v>
@@ -7890,7 +7898,7 @@
         <v>32</v>
       </c>
       <c r="L99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M99">
         <v>57</v>
@@ -7919,19 +7927,19 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" t="s">
+        <v>648</v>
+      </c>
+      <c r="C100" t="s">
         <v>267</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
         <v>43</v>
       </c>
-      <c r="C100" t="s">
+      <c r="F100" t="s">
         <v>268</v>
-      </c>
-      <c r="D100" t="s">
-        <v>44</v>
-      </c>
-      <c r="F100" t="s">
-        <v>269</v>
       </c>
       <c r="G100">
         <v>2017</v>
@@ -7966,16 +7974,16 @@
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>269</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
+        <v>220</v>
+      </c>
+      <c r="F101" t="s">
         <v>270</v>
-      </c>
-      <c r="B101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" t="s">
-        <v>221</v>
-      </c>
-      <c r="F101" t="s">
-        <v>271</v>
       </c>
       <c r="G101">
         <v>2019</v>
@@ -7993,7 +8001,7 @@
         <v>32</v>
       </c>
       <c r="L101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M101">
         <v>21</v>
@@ -8022,16 +8030,16 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" t="s">
         <v>272</v>
       </c>
-      <c r="B102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>273</v>
-      </c>
-      <c r="F102" t="s">
-        <v>274</v>
       </c>
       <c r="G102">
         <v>2017</v>
@@ -8066,19 +8074,19 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" t="s">
         <v>275</v>
-      </c>
-      <c r="B103" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" t="s">
-        <v>105</v>
-      </c>
-      <c r="E103" t="s">
-        <v>129</v>
-      </c>
-      <c r="F103" t="s">
-        <v>276</v>
       </c>
       <c r="G103">
         <v>2017</v>
@@ -8110,16 +8118,16 @@
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G104">
         <v>2019</v>
@@ -8137,7 +8145,7 @@
         <v>32</v>
       </c>
       <c r="L104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M104">
         <v>30</v>
@@ -8166,19 +8174,19 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
         <v>278</v>
       </c>
-      <c r="B105" t="s">
-        <v>56</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>279</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>280</v>
-      </c>
-      <c r="F105" t="s">
-        <v>281</v>
       </c>
       <c r="G105">
         <v>2018</v>
@@ -8196,7 +8204,7 @@
         <v>32</v>
       </c>
       <c r="L105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M105">
         <v>28</v>
@@ -8225,16 +8233,16 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" t="s">
+        <v>648</v>
+      </c>
+      <c r="D106" t="s">
+        <v>189</v>
+      </c>
+      <c r="F106" t="s">
         <v>282</v>
-      </c>
-      <c r="B106" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" t="s">
-        <v>190</v>
-      </c>
-      <c r="F106" t="s">
-        <v>283</v>
       </c>
       <c r="G106">
         <v>2017</v>
@@ -8269,16 +8277,16 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
+        <v>284</v>
+      </c>
+      <c r="F107" t="s">
         <v>285</v>
-      </c>
-      <c r="F107" t="s">
-        <v>286</v>
       </c>
       <c r="G107">
         <v>2019</v>
@@ -8296,7 +8304,7 @@
         <v>33</v>
       </c>
       <c r="L107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -8325,16 +8333,16 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B108" t="s">
         <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G108">
         <v>2018</v>
@@ -8381,16 +8389,16 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>287</v>
+      </c>
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
         <v>288</v>
       </c>
-      <c r="B109" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="F109" t="s">
         <v>289</v>
-      </c>
-      <c r="F109" t="s">
-        <v>290</v>
       </c>
       <c r="G109">
         <v>2019</v>
@@ -8399,7 +8407,7 @@
         <v>11273</v>
       </c>
       <c r="I109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J109" t="s">
         <v>33</v>
@@ -8408,7 +8416,7 @@
         <v>32</v>
       </c>
       <c r="L109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M109">
         <v>100</v>
@@ -8437,13 +8445,13 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>291</v>
-      </c>
-      <c r="B110" t="s">
-        <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>292</v>
       </c>
       <c r="G110">
         <v>2017</v>
@@ -8478,13 +8486,13 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>292</v>
+      </c>
+      <c r="B111" t="s">
+        <v>96</v>
+      </c>
+      <c r="F111" t="s">
         <v>293</v>
-      </c>
-      <c r="B111" t="s">
-        <v>97</v>
-      </c>
-      <c r="F111" t="s">
-        <v>294</v>
       </c>
       <c r="G111">
         <v>2017</v>
@@ -8519,19 +8527,19 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" t="s">
         <v>295</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>93</v>
       </c>
-      <c r="C112" t="s">
+      <c r="F112" t="s">
         <v>296</v>
-      </c>
-      <c r="D112" t="s">
-        <v>94</v>
-      </c>
-      <c r="F112" t="s">
-        <v>297</v>
       </c>
       <c r="G112">
         <v>2018</v>
@@ -8578,16 +8586,16 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B113" t="s">
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G113">
         <v>2018</v>
@@ -8605,7 +8613,7 @@
         <v>33</v>
       </c>
       <c r="L113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M113">
         <v>85</v>
@@ -8634,16 +8642,16 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>298</v>
+      </c>
+      <c r="B114" t="s">
+        <v>648</v>
+      </c>
+      <c r="D114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
         <v>299</v>
-      </c>
-      <c r="B114" t="s">
-        <v>43</v>
-      </c>
-      <c r="D114" t="s">
-        <v>44</v>
-      </c>
-      <c r="F114" t="s">
-        <v>300</v>
       </c>
       <c r="G114">
         <v>2018</v>
@@ -8661,7 +8669,7 @@
         <v>32</v>
       </c>
       <c r="L114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M114">
         <v>50</v>
@@ -8690,16 +8698,16 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>300</v>
+      </c>
+      <c r="B115" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115" t="s">
         <v>301</v>
-      </c>
-      <c r="B115" t="s">
-        <v>93</v>
-      </c>
-      <c r="D115" t="s">
-        <v>94</v>
-      </c>
-      <c r="F115" t="s">
-        <v>302</v>
       </c>
       <c r="G115">
         <v>2017</v>
@@ -8734,16 +8742,16 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D116" t="s">
+        <v>272</v>
+      </c>
+      <c r="F116" t="s">
         <v>273</v>
-      </c>
-      <c r="F116" t="s">
-        <v>274</v>
       </c>
       <c r="G116">
         <v>2017</v>
@@ -8778,13 +8786,13 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" t="s">
         <v>304</v>
-      </c>
-      <c r="B117" t="s">
-        <v>118</v>
-      </c>
-      <c r="F117" t="s">
-        <v>305</v>
       </c>
       <c r="G117">
         <v>2019</v>
@@ -8802,7 +8810,7 @@
         <v>33</v>
       </c>
       <c r="L117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M117">
         <v>50</v>
@@ -8825,13 +8833,13 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" t="s">
         <v>306</v>
-      </c>
-      <c r="B118" t="s">
-        <v>97</v>
-      </c>
-      <c r="F118" t="s">
-        <v>307</v>
       </c>
       <c r="G118">
         <v>2018</v>
@@ -8878,16 +8886,16 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>307</v>
+      </c>
+      <c r="B119" t="s">
+        <v>648</v>
+      </c>
+      <c r="D119" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119" t="s">
         <v>308</v>
-      </c>
-      <c r="B119" t="s">
-        <v>43</v>
-      </c>
-      <c r="D119" t="s">
-        <v>190</v>
-      </c>
-      <c r="F119" t="s">
-        <v>309</v>
       </c>
       <c r="G119">
         <v>2016</v>
@@ -8919,16 +8927,16 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G120">
         <v>2019</v>
@@ -8975,13 +8983,13 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" t="s">
         <v>312</v>
-      </c>
-      <c r="B121" t="s">
-        <v>132</v>
-      </c>
-      <c r="F121" t="s">
-        <v>313</v>
       </c>
       <c r="G121">
         <v>2018</v>
@@ -9028,13 +9036,13 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F122" t="s">
         <v>97</v>
-      </c>
-      <c r="F122" t="s">
-        <v>98</v>
       </c>
       <c r="G122">
         <v>2019</v>
@@ -9078,16 +9086,16 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B123" t="s">
         <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G123">
         <v>2019</v>
@@ -9105,7 +9113,7 @@
         <v>32</v>
       </c>
       <c r="L123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M123">
         <v>60</v>
@@ -9134,16 +9142,16 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>316</v>
+      </c>
+      <c r="B124" t="s">
+        <v>648</v>
+      </c>
+      <c r="D124" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" t="s">
         <v>317</v>
-      </c>
-      <c r="B124" t="s">
-        <v>43</v>
-      </c>
-      <c r="D124" t="s">
-        <v>44</v>
-      </c>
-      <c r="F124" t="s">
-        <v>318</v>
       </c>
       <c r="G124">
         <v>2017</v>
@@ -9178,7 +9186,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B125" t="s">
         <v>24</v>
@@ -9187,7 +9195,7 @@
         <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G125">
         <v>2017</v>
@@ -9222,16 +9230,16 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>320</v>
+      </c>
+      <c r="B126" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" t="s">
+        <v>93</v>
+      </c>
+      <c r="F126" t="s">
         <v>321</v>
-      </c>
-      <c r="B126" t="s">
-        <v>93</v>
-      </c>
-      <c r="D126" t="s">
-        <v>94</v>
-      </c>
-      <c r="F126" t="s">
-        <v>322</v>
       </c>
       <c r="G126">
         <v>2018</v>
@@ -9278,13 +9286,13 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>322</v>
+      </c>
+      <c r="B127" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" t="s">
         <v>323</v>
-      </c>
-      <c r="B127" t="s">
-        <v>170</v>
-      </c>
-      <c r="F127" t="s">
-        <v>324</v>
       </c>
       <c r="G127">
         <v>2018</v>
@@ -9293,7 +9301,7 @@
         <v>2308</v>
       </c>
       <c r="I127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J127" t="s">
         <v>32</v>
@@ -9331,16 +9339,16 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>324</v>
+      </c>
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128" t="s">
+        <v>93</v>
+      </c>
+      <c r="F128" t="s">
         <v>325</v>
-      </c>
-      <c r="B128" t="s">
-        <v>93</v>
-      </c>
-      <c r="D128" t="s">
-        <v>94</v>
-      </c>
-      <c r="F128" t="s">
-        <v>326</v>
       </c>
       <c r="G128">
         <v>2018</v>
@@ -9387,16 +9395,16 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>326</v>
+      </c>
+      <c r="B129" t="s">
+        <v>648</v>
+      </c>
+      <c r="D129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s">
         <v>327</v>
-      </c>
-      <c r="B129" t="s">
-        <v>43</v>
-      </c>
-      <c r="D129" t="s">
-        <v>44</v>
-      </c>
-      <c r="F129" t="s">
-        <v>328</v>
       </c>
       <c r="G129">
         <v>2016</v>
@@ -9428,13 +9436,13 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>328</v>
+      </c>
+      <c r="B130" t="s">
+        <v>214</v>
+      </c>
+      <c r="F130" t="s">
         <v>329</v>
-      </c>
-      <c r="B130" t="s">
-        <v>215</v>
-      </c>
-      <c r="F130" t="s">
-        <v>330</v>
       </c>
       <c r="G130">
         <v>2019</v>
@@ -9452,7 +9460,7 @@
         <v>32</v>
       </c>
       <c r="L130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M130">
         <v>56</v>
@@ -9481,13 +9489,13 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>330</v>
+      </c>
+      <c r="B131" t="s">
+        <v>96</v>
+      </c>
+      <c r="F131" t="s">
         <v>331</v>
-      </c>
-      <c r="B131" t="s">
-        <v>97</v>
-      </c>
-      <c r="F131" t="s">
-        <v>332</v>
       </c>
       <c r="G131">
         <v>2017</v>
@@ -9522,13 +9530,13 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B132" t="s">
         <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G132">
         <v>2017</v>
@@ -9563,16 +9571,16 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133" t="s">
         <v>335</v>
-      </c>
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="D133" t="s">
-        <v>94</v>
-      </c>
-      <c r="F133" t="s">
-        <v>336</v>
       </c>
       <c r="G133">
         <v>2017</v>
@@ -9607,16 +9615,16 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>336</v>
+      </c>
+      <c r="B134" t="s">
+        <v>648</v>
+      </c>
+      <c r="D134" t="s">
         <v>337</v>
       </c>
-      <c r="B134" t="s">
-        <v>43</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>338</v>
-      </c>
-      <c r="F134" t="s">
-        <v>339</v>
       </c>
       <c r="G134">
         <v>2015</v>
@@ -9654,16 +9662,16 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B135" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G135">
         <v>2019</v>
@@ -9681,7 +9689,7 @@
         <v>33</v>
       </c>
       <c r="L135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M135">
         <v>89</v>
@@ -9710,16 +9718,16 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F136" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G136">
         <v>2017</v>
@@ -9748,16 +9756,16 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F137" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G137">
         <v>2016</v>
@@ -9789,16 +9797,16 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F138" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G138">
         <v>2016</v>
@@ -9830,16 +9838,16 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139" t="s">
+        <v>93</v>
+      </c>
+      <c r="F139" t="s">
         <v>347</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="D139" t="s">
-        <v>94</v>
-      </c>
-      <c r="F139" t="s">
-        <v>348</v>
       </c>
       <c r="G139">
         <v>2015</v>
@@ -9868,13 +9876,13 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B140" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" t="s">
         <v>97</v>
-      </c>
-      <c r="F140" t="s">
-        <v>98</v>
       </c>
       <c r="G140">
         <v>2015</v>
@@ -9912,16 +9920,16 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141" t="s">
         <v>350</v>
       </c>
-      <c r="B141" t="s">
-        <v>159</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>351</v>
-      </c>
-      <c r="F141" t="s">
-        <v>352</v>
       </c>
       <c r="G141">
         <v>2015</v>
@@ -9959,16 +9967,16 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" t="s">
+        <v>186</v>
+      </c>
+      <c r="F142" t="s">
         <v>353</v>
-      </c>
-      <c r="B142" t="s">
-        <v>93</v>
-      </c>
-      <c r="D142" t="s">
-        <v>187</v>
-      </c>
-      <c r="F142" t="s">
-        <v>354</v>
       </c>
       <c r="G142">
         <v>2015</v>
@@ -10006,16 +10014,16 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>354</v>
+      </c>
+      <c r="B143" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" t="s">
+        <v>186</v>
+      </c>
+      <c r="F143" t="s">
         <v>355</v>
-      </c>
-      <c r="B143" t="s">
-        <v>93</v>
-      </c>
-      <c r="D143" t="s">
-        <v>187</v>
-      </c>
-      <c r="F143" t="s">
-        <v>356</v>
       </c>
       <c r="G143">
         <v>2015</v>
@@ -10053,16 +10061,16 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>356</v>
+      </c>
+      <c r="B144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D144" t="s">
+        <v>93</v>
+      </c>
+      <c r="F144" t="s">
         <v>357</v>
-      </c>
-      <c r="B144" t="s">
-        <v>93</v>
-      </c>
-      <c r="D144" t="s">
-        <v>94</v>
-      </c>
-      <c r="F144" t="s">
-        <v>358</v>
       </c>
       <c r="G144">
         <v>2015</v>
@@ -10091,16 +10099,16 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B145" t="s">
         <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G145">
         <v>2019</v>
@@ -10144,16 +10152,16 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>360</v>
+      </c>
+      <c r="B146" t="s">
+        <v>51</v>
+      </c>
+      <c r="D146" t="s">
+        <v>52</v>
+      </c>
+      <c r="F146" t="s">
         <v>361</v>
-      </c>
-      <c r="B146" t="s">
-        <v>52</v>
-      </c>
-      <c r="D146" t="s">
-        <v>53</v>
-      </c>
-      <c r="F146" t="s">
-        <v>362</v>
       </c>
       <c r="G146">
         <v>2016</v>
@@ -10185,16 +10193,16 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>362</v>
+      </c>
+      <c r="B147" t="s">
+        <v>51</v>
+      </c>
+      <c r="D147" t="s">
+        <v>220</v>
+      </c>
+      <c r="F147" t="s">
         <v>363</v>
-      </c>
-      <c r="B147" t="s">
-        <v>52</v>
-      </c>
-      <c r="D147" t="s">
-        <v>221</v>
-      </c>
-      <c r="F147" t="s">
-        <v>364</v>
       </c>
       <c r="G147">
         <v>2016</v>
@@ -10226,16 +10234,16 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>364</v>
+      </c>
+      <c r="B148" t="s">
+        <v>51</v>
+      </c>
+      <c r="D148" t="s">
+        <v>209</v>
+      </c>
+      <c r="F148" t="s">
         <v>365</v>
-      </c>
-      <c r="B148" t="s">
-        <v>52</v>
-      </c>
-      <c r="D148" t="s">
-        <v>210</v>
-      </c>
-      <c r="F148" t="s">
-        <v>366</v>
       </c>
       <c r="G148">
         <v>2015</v>
@@ -10273,16 +10281,16 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>366</v>
+      </c>
+      <c r="B149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" t="s">
         <v>367</v>
-      </c>
-      <c r="B149" t="s">
-        <v>52</v>
-      </c>
-      <c r="D149" t="s">
-        <v>53</v>
-      </c>
-      <c r="F149" t="s">
-        <v>368</v>
       </c>
       <c r="G149">
         <v>2015</v>
@@ -10320,16 +10328,16 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>368</v>
+      </c>
+      <c r="B150" t="s">
         <v>369</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>370</v>
       </c>
-      <c r="C150" t="s">
+      <c r="F150" t="s">
         <v>371</v>
-      </c>
-      <c r="F150" t="s">
-        <v>372</v>
       </c>
       <c r="G150">
         <v>2018</v>
@@ -10347,7 +10355,7 @@
         <v>32</v>
       </c>
       <c r="L150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M150">
         <v>40</v>
@@ -10373,16 +10381,16 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D151" t="s">
+        <v>72</v>
+      </c>
+      <c r="F151" t="s">
         <v>73</v>
-      </c>
-      <c r="F151" t="s">
-        <v>74</v>
       </c>
       <c r="G151">
         <v>2015</v>
@@ -10420,16 +10428,16 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>373</v>
+      </c>
+      <c r="B152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" t="s">
+        <v>209</v>
+      </c>
+      <c r="F152" t="s">
         <v>374</v>
-      </c>
-      <c r="B152" t="s">
-        <v>52</v>
-      </c>
-      <c r="D152" t="s">
-        <v>210</v>
-      </c>
-      <c r="F152" t="s">
-        <v>375</v>
       </c>
       <c r="G152">
         <v>2018</v>
@@ -10447,7 +10455,7 @@
         <v>32</v>
       </c>
       <c r="L152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M152">
         <v>60</v>
@@ -10476,16 +10484,16 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>376</v>
+      </c>
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" t="s">
         <v>377</v>
       </c>
-      <c r="B153" t="s">
-        <v>52</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>378</v>
-      </c>
-      <c r="F153" t="s">
-        <v>379</v>
       </c>
       <c r="G153">
         <v>2018</v>
@@ -10503,7 +10511,7 @@
         <v>32</v>
       </c>
       <c r="L153" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M153">
         <v>15</v>
@@ -10532,16 +10540,16 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154" t="s">
         <v>52</v>
       </c>
-      <c r="D154" t="s">
-        <v>53</v>
-      </c>
       <c r="F154" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G154">
         <v>2017</v>
@@ -10576,16 +10584,16 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>380</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" t="s">
         <v>381</v>
-      </c>
-      <c r="B155" t="s">
-        <v>52</v>
-      </c>
-      <c r="D155" t="s">
-        <v>53</v>
-      </c>
-      <c r="F155" t="s">
-        <v>382</v>
       </c>
       <c r="G155">
         <v>2017</v>
@@ -10620,19 +10628,19 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B156" t="s">
         <v>24</v>
       </c>
       <c r="C156" t="s">
+        <v>383</v>
+      </c>
+      <c r="D156" t="s">
+        <v>61</v>
+      </c>
+      <c r="F156" t="s">
         <v>384</v>
-      </c>
-      <c r="D156" t="s">
-        <v>62</v>
-      </c>
-      <c r="F156" t="s">
-        <v>385</v>
       </c>
       <c r="G156">
         <v>2016</v>
@@ -10664,13 +10672,13 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B157" t="s">
         <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G157">
         <v>2016</v>
@@ -10702,16 +10710,16 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B158" t="s">
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F158" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G158">
         <v>2016</v>
@@ -10743,16 +10751,16 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>389</v>
+      </c>
+      <c r="B159" t="s">
+        <v>648</v>
+      </c>
+      <c r="D159" t="s">
+        <v>43</v>
+      </c>
+      <c r="F159" t="s">
         <v>390</v>
-      </c>
-      <c r="B159" t="s">
-        <v>43</v>
-      </c>
-      <c r="D159" t="s">
-        <v>44</v>
-      </c>
-      <c r="F159" t="s">
-        <v>391</v>
       </c>
       <c r="G159">
         <v>2018</v>
@@ -10761,13 +10769,13 @@
         <v>1390</v>
       </c>
       <c r="I159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J159" t="s">
         <v>33</v>
       </c>
       <c r="K159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L159" t="s">
         <v>33</v>
@@ -10799,16 +10807,16 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>392</v>
+      </c>
+      <c r="B160" t="s">
+        <v>92</v>
+      </c>
+      <c r="D160" t="s">
+        <v>93</v>
+      </c>
+      <c r="F160" t="s">
         <v>393</v>
-      </c>
-      <c r="B160" t="s">
-        <v>93</v>
-      </c>
-      <c r="D160" t="s">
-        <v>94</v>
-      </c>
-      <c r="F160" t="s">
-        <v>394</v>
       </c>
       <c r="G160">
         <v>2015</v>
@@ -10846,19 +10854,19 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>394</v>
+      </c>
+      <c r="B161" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" t="s">
         <v>395</v>
       </c>
-      <c r="B161" t="s">
-        <v>159</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>396</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
         <v>397</v>
-      </c>
-      <c r="F161" t="s">
-        <v>398</v>
       </c>
       <c r="G161">
         <v>2015</v>
@@ -10896,16 +10904,16 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>398</v>
+      </c>
+      <c r="B162" t="s">
+        <v>92</v>
+      </c>
+      <c r="D162" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162" t="s">
         <v>399</v>
-      </c>
-      <c r="B162" t="s">
-        <v>93</v>
-      </c>
-      <c r="D162" t="s">
-        <v>94</v>
-      </c>
-      <c r="F162" t="s">
-        <v>400</v>
       </c>
       <c r="G162">
         <v>2015</v>
@@ -10943,16 +10951,16 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>400</v>
+      </c>
+      <c r="B163" t="s">
+        <v>92</v>
+      </c>
+      <c r="D163" t="s">
+        <v>93</v>
+      </c>
+      <c r="F163" t="s">
         <v>401</v>
-      </c>
-      <c r="B163" t="s">
-        <v>93</v>
-      </c>
-      <c r="D163" t="s">
-        <v>94</v>
-      </c>
-      <c r="F163" t="s">
-        <v>402</v>
       </c>
       <c r="G163">
         <v>2015</v>
@@ -10990,16 +10998,16 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>402</v>
+      </c>
+      <c r="B164" t="s">
+        <v>158</v>
+      </c>
+      <c r="D164" t="s">
         <v>403</v>
       </c>
-      <c r="B164" t="s">
-        <v>159</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>404</v>
-      </c>
-      <c r="F164" t="s">
-        <v>405</v>
       </c>
       <c r="G164">
         <v>2015</v>
@@ -11037,13 +11045,13 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>405</v>
+      </c>
+      <c r="B165" t="s">
+        <v>131</v>
+      </c>
+      <c r="F165" t="s">
         <v>406</v>
-      </c>
-      <c r="B165" t="s">
-        <v>132</v>
-      </c>
-      <c r="F165" t="s">
-        <v>407</v>
       </c>
       <c r="G165">
         <v>2015</v>
@@ -11081,16 +11089,16 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>407</v>
+      </c>
+      <c r="B166" t="s">
+        <v>648</v>
+      </c>
+      <c r="D166" t="s">
+        <v>189</v>
+      </c>
+      <c r="F166" t="s">
         <v>408</v>
-      </c>
-      <c r="B166" t="s">
-        <v>43</v>
-      </c>
-      <c r="D166" t="s">
-        <v>190</v>
-      </c>
-      <c r="F166" t="s">
-        <v>409</v>
       </c>
       <c r="G166">
         <v>2015</v>
@@ -11128,16 +11136,16 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>409</v>
+      </c>
+      <c r="B167" t="s">
+        <v>158</v>
+      </c>
+      <c r="D167" t="s">
+        <v>396</v>
+      </c>
+      <c r="F167" t="s">
         <v>410</v>
-      </c>
-      <c r="B167" t="s">
-        <v>159</v>
-      </c>
-      <c r="D167" t="s">
-        <v>397</v>
-      </c>
-      <c r="F167" t="s">
-        <v>411</v>
       </c>
       <c r="G167">
         <v>2015</v>
@@ -11175,16 +11183,16 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>411</v>
+      </c>
+      <c r="B168" t="s">
+        <v>51</v>
+      </c>
+      <c r="D168" t="s">
+        <v>150</v>
+      </c>
+      <c r="F168" t="s">
         <v>412</v>
-      </c>
-      <c r="B168" t="s">
-        <v>52</v>
-      </c>
-      <c r="D168" t="s">
-        <v>151</v>
-      </c>
-      <c r="F168" t="s">
-        <v>413</v>
       </c>
       <c r="G168">
         <v>2019</v>
@@ -11193,7 +11201,7 @@
         <v>571</v>
       </c>
       <c r="I168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J168" t="s">
         <v>33</v>
@@ -11202,7 +11210,7 @@
         <v>32</v>
       </c>
       <c r="L168" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M168">
         <v>100</v>
@@ -11231,19 +11239,19 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>413</v>
+      </c>
+      <c r="B169" t="s">
+        <v>51</v>
+      </c>
+      <c r="D169" t="s">
+        <v>104</v>
+      </c>
+      <c r="E169" t="s">
         <v>414</v>
       </c>
-      <c r="B169" t="s">
-        <v>52</v>
-      </c>
-      <c r="D169" t="s">
-        <v>105</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>415</v>
-      </c>
-      <c r="F169" t="s">
-        <v>416</v>
       </c>
       <c r="G169">
         <v>2018</v>
@@ -11261,7 +11269,7 @@
         <v>32</v>
       </c>
       <c r="L169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M169">
         <v>21</v>
@@ -11290,16 +11298,16 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>416</v>
+      </c>
+      <c r="B170" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170" t="s">
+        <v>209</v>
+      </c>
+      <c r="F170" t="s">
         <v>417</v>
-      </c>
-      <c r="B170" t="s">
-        <v>52</v>
-      </c>
-      <c r="D170" t="s">
-        <v>210</v>
-      </c>
-      <c r="F170" t="s">
-        <v>418</v>
       </c>
       <c r="G170">
         <v>2017</v>
@@ -11331,19 +11339,19 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>418</v>
+      </c>
+      <c r="B171" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" t="s">
+        <v>68</v>
+      </c>
+      <c r="E171" t="s">
+        <v>162</v>
+      </c>
+      <c r="F171" t="s">
         <v>419</v>
-      </c>
-      <c r="B171" t="s">
-        <v>52</v>
-      </c>
-      <c r="D171" t="s">
-        <v>69</v>
-      </c>
-      <c r="E171" t="s">
-        <v>163</v>
-      </c>
-      <c r="F171" t="s">
-        <v>420</v>
       </c>
       <c r="G171">
         <v>2019</v>
@@ -11361,7 +11369,7 @@
         <v>32</v>
       </c>
       <c r="L171" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M171">
         <v>25</v>
@@ -11387,16 +11395,16 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>420</v>
+      </c>
+      <c r="B172" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" t="s">
+        <v>52</v>
+      </c>
+      <c r="F172" t="s">
         <v>421</v>
-      </c>
-      <c r="B172" t="s">
-        <v>52</v>
-      </c>
-      <c r="D172" t="s">
-        <v>53</v>
-      </c>
-      <c r="F172" t="s">
-        <v>422</v>
       </c>
       <c r="G172">
         <v>2019</v>
@@ -11440,16 +11448,16 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>422</v>
+      </c>
+      <c r="B173" t="s">
+        <v>648</v>
+      </c>
+      <c r="D173" t="s">
+        <v>337</v>
+      </c>
+      <c r="F173" t="s">
         <v>423</v>
-      </c>
-      <c r="B173" t="s">
-        <v>43</v>
-      </c>
-      <c r="D173" t="s">
-        <v>338</v>
-      </c>
-      <c r="F173" t="s">
-        <v>424</v>
       </c>
       <c r="G173">
         <v>2019</v>
@@ -11467,7 +11475,7 @@
         <v>32</v>
       </c>
       <c r="L173" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M173">
         <v>43</v>
@@ -11496,19 +11504,19 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>424</v>
+      </c>
+      <c r="B174" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" t="s">
+        <v>104</v>
+      </c>
+      <c r="E174" t="s">
+        <v>128</v>
+      </c>
+      <c r="F174" t="s">
         <v>425</v>
-      </c>
-      <c r="B174" t="s">
-        <v>52</v>
-      </c>
-      <c r="D174" t="s">
-        <v>105</v>
-      </c>
-      <c r="E174" t="s">
-        <v>129</v>
-      </c>
-      <c r="F174" t="s">
-        <v>426</v>
       </c>
       <c r="G174">
         <v>2018</v>
@@ -11526,7 +11534,7 @@
         <v>32</v>
       </c>
       <c r="L174" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M174">
         <v>28</v>
@@ -11552,16 +11560,16 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>426</v>
+      </c>
+      <c r="B175" t="s">
+        <v>92</v>
+      </c>
+      <c r="D175" t="s">
+        <v>93</v>
+      </c>
+      <c r="F175" t="s">
         <v>427</v>
-      </c>
-      <c r="B175" t="s">
-        <v>93</v>
-      </c>
-      <c r="D175" t="s">
-        <v>94</v>
-      </c>
-      <c r="F175" t="s">
-        <v>428</v>
       </c>
       <c r="G175">
         <v>2017</v>
@@ -11593,7 +11601,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B176" t="s">
         <v>24</v>
@@ -11602,7 +11610,7 @@
         <v>25</v>
       </c>
       <c r="F176" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G176">
         <v>2016</v>
@@ -11634,13 +11642,13 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>430</v>
+      </c>
+      <c r="B177" t="s">
+        <v>131</v>
+      </c>
+      <c r="F177" t="s">
         <v>431</v>
-      </c>
-      <c r="B177" t="s">
-        <v>132</v>
-      </c>
-      <c r="F177" t="s">
-        <v>432</v>
       </c>
       <c r="G177">
         <v>2016</v>
@@ -11672,16 +11680,16 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>432</v>
+      </c>
+      <c r="B178" t="s">
+        <v>92</v>
+      </c>
+      <c r="D178" t="s">
+        <v>93</v>
+      </c>
+      <c r="F178" t="s">
         <v>433</v>
-      </c>
-      <c r="B178" t="s">
-        <v>93</v>
-      </c>
-      <c r="D178" t="s">
-        <v>94</v>
-      </c>
-      <c r="F178" t="s">
-        <v>434</v>
       </c>
       <c r="G178">
         <v>2015</v>
@@ -11719,16 +11727,16 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>434</v>
+      </c>
+      <c r="B179" t="s">
+        <v>158</v>
+      </c>
+      <c r="D179" t="s">
         <v>435</v>
       </c>
-      <c r="B179" t="s">
-        <v>159</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="F179" t="s">
         <v>436</v>
-      </c>
-      <c r="F179" t="s">
-        <v>437</v>
       </c>
       <c r="G179">
         <v>2015</v>
@@ -11766,13 +11774,13 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>437</v>
+      </c>
+      <c r="B180" t="s">
+        <v>369</v>
+      </c>
+      <c r="F180" t="s">
         <v>438</v>
-      </c>
-      <c r="B180" t="s">
-        <v>370</v>
-      </c>
-      <c r="F180" t="s">
-        <v>439</v>
       </c>
       <c r="G180">
         <v>2015</v>
@@ -11810,13 +11818,13 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B181" t="s">
         <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G181">
         <v>2018</v>
@@ -11834,7 +11842,7 @@
         <v>32</v>
       </c>
       <c r="L181" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M181">
         <v>76</v>
@@ -11860,16 +11868,16 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>441</v>
+      </c>
+      <c r="B182" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" t="s">
+        <v>209</v>
+      </c>
+      <c r="F182" t="s">
         <v>442</v>
-      </c>
-      <c r="B182" t="s">
-        <v>52</v>
-      </c>
-      <c r="D182" t="s">
-        <v>210</v>
-      </c>
-      <c r="F182" t="s">
-        <v>443</v>
       </c>
       <c r="G182">
         <v>2018</v>
@@ -11887,7 +11895,7 @@
         <v>32</v>
       </c>
       <c r="L182" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M182">
         <v>58</v>
@@ -11913,13 +11921,13 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B183" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F183" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G183">
         <v>2017</v>
@@ -11951,16 +11959,16 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>444</v>
+      </c>
+      <c r="B184" t="s">
+        <v>51</v>
+      </c>
+      <c r="D184" t="s">
+        <v>150</v>
+      </c>
+      <c r="F184" t="s">
         <v>445</v>
-      </c>
-      <c r="B184" t="s">
-        <v>52</v>
-      </c>
-      <c r="D184" t="s">
-        <v>151</v>
-      </c>
-      <c r="F184" t="s">
-        <v>446</v>
       </c>
       <c r="G184">
         <v>2015</v>
@@ -11998,16 +12006,16 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>446</v>
+      </c>
+      <c r="B185" t="s">
+        <v>51</v>
+      </c>
+      <c r="D185" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" t="s">
         <v>447</v>
-      </c>
-      <c r="B185" t="s">
-        <v>52</v>
-      </c>
-      <c r="D185" t="s">
-        <v>53</v>
-      </c>
-      <c r="F185" t="s">
-        <v>448</v>
       </c>
       <c r="G185">
         <v>2015</v>
@@ -12045,16 +12053,16 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>448</v>
+      </c>
+      <c r="B186" t="s">
+        <v>92</v>
+      </c>
+      <c r="D186" t="s">
+        <v>272</v>
+      </c>
+      <c r="F186" t="s">
         <v>449</v>
-      </c>
-      <c r="B186" t="s">
-        <v>93</v>
-      </c>
-      <c r="D186" t="s">
-        <v>273</v>
-      </c>
-      <c r="F186" t="s">
-        <v>450</v>
       </c>
       <c r="G186">
         <v>2016</v>
@@ -12086,16 +12094,16 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B187" t="s">
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F187" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G187">
         <v>2016</v>
@@ -12127,16 +12135,16 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>451</v>
+      </c>
+      <c r="B188" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" t="s">
         <v>452</v>
       </c>
-      <c r="B188" t="s">
-        <v>370</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="F188" t="s">
         <v>453</v>
-      </c>
-      <c r="F188" t="s">
-        <v>454</v>
       </c>
       <c r="G188">
         <v>2015</v>
@@ -12174,16 +12182,16 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>454</v>
+      </c>
+      <c r="B189" t="s">
+        <v>158</v>
+      </c>
+      <c r="D189" t="s">
+        <v>396</v>
+      </c>
+      <c r="F189" t="s">
         <v>455</v>
-      </c>
-      <c r="B189" t="s">
-        <v>159</v>
-      </c>
-      <c r="D189" t="s">
-        <v>397</v>
-      </c>
-      <c r="F189" t="s">
-        <v>456</v>
       </c>
       <c r="G189">
         <v>2015</v>
@@ -12221,13 +12229,13 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>456</v>
+      </c>
+      <c r="B190" t="s">
+        <v>96</v>
+      </c>
+      <c r="F190" t="s">
         <v>457</v>
-      </c>
-      <c r="B190" t="s">
-        <v>97</v>
-      </c>
-      <c r="F190" t="s">
-        <v>458</v>
       </c>
       <c r="G190">
         <v>2015</v>
@@ -12265,16 +12273,16 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>458</v>
+      </c>
+      <c r="B191" t="s">
+        <v>92</v>
+      </c>
+      <c r="D191" t="s">
+        <v>272</v>
+      </c>
+      <c r="F191" t="s">
         <v>459</v>
-      </c>
-      <c r="B191" t="s">
-        <v>93</v>
-      </c>
-      <c r="D191" t="s">
-        <v>273</v>
-      </c>
-      <c r="F191" t="s">
-        <v>460</v>
       </c>
       <c r="G191">
         <v>2016</v>
@@ -12306,16 +12314,16 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>460</v>
+      </c>
+      <c r="B192" t="s">
+        <v>51</v>
+      </c>
+      <c r="D192" t="s">
+        <v>377</v>
+      </c>
+      <c r="F192" t="s">
         <v>461</v>
-      </c>
-      <c r="B192" t="s">
-        <v>52</v>
-      </c>
-      <c r="D192" t="s">
-        <v>378</v>
-      </c>
-      <c r="F192" t="s">
-        <v>462</v>
       </c>
       <c r="G192">
         <v>2015</v>
@@ -12353,16 +12361,16 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>462</v>
+      </c>
+      <c r="B193" t="s">
+        <v>51</v>
+      </c>
+      <c r="D193" t="s">
+        <v>209</v>
+      </c>
+      <c r="F193" t="s">
         <v>463</v>
-      </c>
-      <c r="B193" t="s">
-        <v>52</v>
-      </c>
-      <c r="D193" t="s">
-        <v>210</v>
-      </c>
-      <c r="F193" t="s">
-        <v>464</v>
       </c>
       <c r="G193">
         <v>2015</v>
@@ -12400,19 +12408,19 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>464</v>
+      </c>
+      <c r="B194" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194" t="s">
+        <v>395</v>
+      </c>
+      <c r="D194" t="s">
+        <v>396</v>
+      </c>
+      <c r="F194" t="s">
         <v>465</v>
-      </c>
-      <c r="B194" t="s">
-        <v>159</v>
-      </c>
-      <c r="C194" t="s">
-        <v>396</v>
-      </c>
-      <c r="D194" t="s">
-        <v>397</v>
-      </c>
-      <c r="F194" t="s">
-        <v>466</v>
       </c>
       <c r="G194">
         <v>2015</v>
@@ -12450,16 +12458,16 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>466</v>
+      </c>
+      <c r="B195" t="s">
+        <v>648</v>
+      </c>
+      <c r="D195" t="s">
+        <v>43</v>
+      </c>
+      <c r="F195" t="s">
         <v>467</v>
-      </c>
-      <c r="B195" t="s">
-        <v>43</v>
-      </c>
-      <c r="D195" t="s">
-        <v>44</v>
-      </c>
-      <c r="F195" t="s">
-        <v>468</v>
       </c>
       <c r="G195">
         <v>2018</v>
@@ -12477,7 +12485,7 @@
         <v>32</v>
       </c>
       <c r="L195" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M195">
         <v>45</v>
@@ -12506,16 +12514,16 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>468</v>
+      </c>
+      <c r="B196" t="s">
+        <v>158</v>
+      </c>
+      <c r="D196" t="s">
+        <v>350</v>
+      </c>
+      <c r="F196" t="s">
         <v>469</v>
-      </c>
-      <c r="B196" t="s">
-        <v>159</v>
-      </c>
-      <c r="D196" t="s">
-        <v>351</v>
-      </c>
-      <c r="F196" t="s">
-        <v>470</v>
       </c>
       <c r="G196">
         <v>2015</v>
@@ -12553,16 +12561,16 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>470</v>
+      </c>
+      <c r="B197" t="s">
+        <v>648</v>
+      </c>
+      <c r="D197" t="s">
+        <v>43</v>
+      </c>
+      <c r="F197" t="s">
         <v>471</v>
-      </c>
-      <c r="B197" t="s">
-        <v>43</v>
-      </c>
-      <c r="D197" t="s">
-        <v>44</v>
-      </c>
-      <c r="F197" t="s">
-        <v>472</v>
       </c>
       <c r="G197">
         <v>2017</v>
@@ -12597,16 +12605,16 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>472</v>
+      </c>
+      <c r="B198" t="s">
+        <v>648</v>
+      </c>
+      <c r="D198" t="s">
+        <v>43</v>
+      </c>
+      <c r="F198" t="s">
         <v>473</v>
-      </c>
-      <c r="B198" t="s">
-        <v>43</v>
-      </c>
-      <c r="D198" t="s">
-        <v>44</v>
-      </c>
-      <c r="F198" t="s">
-        <v>474</v>
       </c>
       <c r="G198">
         <v>2018</v>
@@ -12624,7 +12632,7 @@
         <v>32</v>
       </c>
       <c r="L198" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M198">
         <v>43</v>
@@ -12653,16 +12661,16 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>474</v>
+      </c>
+      <c r="B199" t="s">
+        <v>158</v>
+      </c>
+      <c r="D199" t="s">
+        <v>403</v>
+      </c>
+      <c r="F199" t="s">
         <v>475</v>
-      </c>
-      <c r="B199" t="s">
-        <v>159</v>
-      </c>
-      <c r="D199" t="s">
-        <v>404</v>
-      </c>
-      <c r="F199" t="s">
-        <v>476</v>
       </c>
       <c r="G199">
         <v>2015</v>
@@ -12700,16 +12708,16 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>476</v>
+      </c>
+      <c r="B200" t="s">
+        <v>158</v>
+      </c>
+      <c r="D200" t="s">
+        <v>350</v>
+      </c>
+      <c r="F200" t="s">
         <v>477</v>
-      </c>
-      <c r="B200" t="s">
-        <v>159</v>
-      </c>
-      <c r="D200" t="s">
-        <v>351</v>
-      </c>
-      <c r="F200" t="s">
-        <v>478</v>
       </c>
       <c r="G200">
         <v>2015</v>
@@ -12747,16 +12755,16 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>478</v>
+      </c>
+      <c r="B201" t="s">
+        <v>648</v>
+      </c>
+      <c r="D201" t="s">
+        <v>43</v>
+      </c>
+      <c r="F201" t="s">
         <v>479</v>
-      </c>
-      <c r="B201" t="s">
-        <v>43</v>
-      </c>
-      <c r="D201" t="s">
-        <v>44</v>
-      </c>
-      <c r="F201" t="s">
-        <v>480</v>
       </c>
       <c r="G201">
         <v>2018</v>
@@ -12774,7 +12782,7 @@
         <v>33</v>
       </c>
       <c r="L201" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M201">
         <v>50</v>
@@ -12803,16 +12811,16 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>480</v>
+      </c>
+      <c r="B202" t="s">
+        <v>51</v>
+      </c>
+      <c r="D202" t="s">
+        <v>209</v>
+      </c>
+      <c r="F202" t="s">
         <v>481</v>
-      </c>
-      <c r="B202" t="s">
-        <v>52</v>
-      </c>
-      <c r="D202" t="s">
-        <v>210</v>
-      </c>
-      <c r="F202" t="s">
-        <v>482</v>
       </c>
       <c r="G202">
         <v>2015</v>
@@ -12850,16 +12858,16 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>482</v>
+      </c>
+      <c r="B203" t="s">
+        <v>92</v>
+      </c>
+      <c r="D203" t="s">
+        <v>93</v>
+      </c>
+      <c r="F203" t="s">
         <v>483</v>
-      </c>
-      <c r="B203" t="s">
-        <v>93</v>
-      </c>
-      <c r="D203" t="s">
-        <v>94</v>
-      </c>
-      <c r="F203" t="s">
-        <v>484</v>
       </c>
       <c r="G203">
         <v>2015</v>
@@ -12897,19 +12905,19 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>484</v>
+      </c>
+      <c r="B204" t="s">
+        <v>51</v>
+      </c>
+      <c r="D204" t="s">
+        <v>68</v>
+      </c>
+      <c r="E204" t="s">
         <v>485</v>
       </c>
-      <c r="B204" t="s">
-        <v>52</v>
-      </c>
-      <c r="D204" t="s">
-        <v>69</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>486</v>
-      </c>
-      <c r="F204" t="s">
-        <v>487</v>
       </c>
       <c r="G204">
         <v>2017</v>
@@ -12944,13 +12952,13 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>487</v>
+      </c>
+      <c r="B205" t="s">
+        <v>169</v>
+      </c>
+      <c r="F205" t="s">
         <v>488</v>
-      </c>
-      <c r="B205" t="s">
-        <v>170</v>
-      </c>
-      <c r="F205" t="s">
-        <v>489</v>
       </c>
       <c r="G205">
         <v>2015</v>
@@ -12988,13 +12996,13 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>489</v>
+      </c>
+      <c r="B206" t="s">
+        <v>131</v>
+      </c>
+      <c r="F206" t="s">
         <v>490</v>
-      </c>
-      <c r="B206" t="s">
-        <v>132</v>
-      </c>
-      <c r="F206" t="s">
-        <v>491</v>
       </c>
       <c r="G206">
         <v>2015</v>
@@ -13032,16 +13040,16 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>491</v>
+      </c>
+      <c r="B207" t="s">
+        <v>51</v>
+      </c>
+      <c r="D207" t="s">
+        <v>377</v>
+      </c>
+      <c r="F207" t="s">
         <v>492</v>
-      </c>
-      <c r="B207" t="s">
-        <v>52</v>
-      </c>
-      <c r="D207" t="s">
-        <v>378</v>
-      </c>
-      <c r="F207" t="s">
-        <v>493</v>
       </c>
       <c r="G207">
         <v>2017</v>
@@ -13076,16 +13084,16 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B208" t="s">
         <v>29</v>
       </c>
       <c r="D208" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F208" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G208">
         <v>2018</v>
@@ -13103,7 +13111,7 @@
         <v>33</v>
       </c>
       <c r="L208" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M208">
         <v>53</v>
@@ -13129,13 +13137,13 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>495</v>
+      </c>
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+      <c r="F209" t="s">
         <v>496</v>
-      </c>
-      <c r="B209" t="s">
-        <v>215</v>
-      </c>
-      <c r="F209" t="s">
-        <v>497</v>
       </c>
       <c r="G209">
         <v>2016</v>
@@ -13167,16 +13175,16 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>497</v>
+      </c>
+      <c r="B210" t="s">
+        <v>51</v>
+      </c>
+      <c r="D210" t="s">
+        <v>377</v>
+      </c>
+      <c r="F210" t="s">
         <v>498</v>
-      </c>
-      <c r="B210" t="s">
-        <v>52</v>
-      </c>
-      <c r="D210" t="s">
-        <v>378</v>
-      </c>
-      <c r="F210" t="s">
-        <v>499</v>
       </c>
       <c r="G210">
         <v>2018</v>
@@ -13194,7 +13202,7 @@
         <v>32</v>
       </c>
       <c r="L210" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M210">
         <v>41</v>
@@ -13223,16 +13231,16 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>499</v>
+      </c>
+      <c r="B211" t="s">
+        <v>92</v>
+      </c>
+      <c r="D211" t="s">
+        <v>93</v>
+      </c>
+      <c r="F211" t="s">
         <v>500</v>
-      </c>
-      <c r="B211" t="s">
-        <v>93</v>
-      </c>
-      <c r="D211" t="s">
-        <v>94</v>
-      </c>
-      <c r="F211" t="s">
-        <v>501</v>
       </c>
       <c r="G211">
         <v>2015</v>
@@ -13261,16 +13269,16 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B212" t="s">
         <v>29</v>
       </c>
       <c r="D212" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F212" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G212">
         <v>2019</v>
@@ -13288,7 +13296,7 @@
         <v>33</v>
       </c>
       <c r="L212" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M212">
         <v>47</v>
@@ -13314,16 +13322,16 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>503</v>
+      </c>
+      <c r="B213" t="s">
+        <v>92</v>
+      </c>
+      <c r="D213" t="s">
+        <v>93</v>
+      </c>
+      <c r="F213" t="s">
         <v>504</v>
-      </c>
-      <c r="B213" t="s">
-        <v>93</v>
-      </c>
-      <c r="D213" t="s">
-        <v>94</v>
-      </c>
-      <c r="F213" t="s">
-        <v>505</v>
       </c>
       <c r="G213">
         <v>2015</v>
@@ -13361,13 +13369,13 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B214" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F214" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G214">
         <v>2016</v>
@@ -13399,16 +13407,16 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>506</v>
+      </c>
+      <c r="B215" t="s">
+        <v>92</v>
+      </c>
+      <c r="D215" t="s">
+        <v>93</v>
+      </c>
+      <c r="F215" t="s">
         <v>507</v>
-      </c>
-      <c r="B215" t="s">
-        <v>93</v>
-      </c>
-      <c r="D215" t="s">
-        <v>94</v>
-      </c>
-      <c r="F215" t="s">
-        <v>508</v>
       </c>
       <c r="G215">
         <v>2015</v>
@@ -13446,16 +13454,16 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>508</v>
+      </c>
+      <c r="B216" t="s">
+        <v>51</v>
+      </c>
+      <c r="D216" t="s">
+        <v>377</v>
+      </c>
+      <c r="F216" t="s">
         <v>509</v>
-      </c>
-      <c r="B216" t="s">
-        <v>52</v>
-      </c>
-      <c r="D216" t="s">
-        <v>378</v>
-      </c>
-      <c r="F216" t="s">
-        <v>510</v>
       </c>
       <c r="G216">
         <v>2018</v>
@@ -13473,7 +13481,7 @@
         <v>32</v>
       </c>
       <c r="L216" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M216">
         <v>41</v>
@@ -13502,16 +13510,16 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>510</v>
+      </c>
+      <c r="B217" t="s">
+        <v>55</v>
+      </c>
+      <c r="D217" t="s">
         <v>511</v>
       </c>
-      <c r="B217" t="s">
-        <v>56</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="F217" t="s">
         <v>512</v>
-      </c>
-      <c r="F217" t="s">
-        <v>513</v>
       </c>
       <c r="G217">
         <v>2015</v>
@@ -13549,13 +13557,13 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B218" t="s">
         <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G218">
         <v>2015</v>
@@ -13593,16 +13601,16 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>515</v>
+      </c>
+      <c r="B219" t="s">
+        <v>648</v>
+      </c>
+      <c r="D219" t="s">
+        <v>337</v>
+      </c>
+      <c r="F219" t="s">
         <v>516</v>
-      </c>
-      <c r="B219" t="s">
-        <v>43</v>
-      </c>
-      <c r="D219" t="s">
-        <v>338</v>
-      </c>
-      <c r="F219" t="s">
-        <v>517</v>
       </c>
       <c r="G219">
         <v>2017</v>
@@ -13637,16 +13645,16 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>517</v>
+      </c>
+      <c r="B220" t="s">
+        <v>648</v>
+      </c>
+      <c r="D220" t="s">
+        <v>43</v>
+      </c>
+      <c r="F220" t="s">
         <v>518</v>
-      </c>
-      <c r="B220" t="s">
-        <v>43</v>
-      </c>
-      <c r="D220" t="s">
-        <v>44</v>
-      </c>
-      <c r="F220" t="s">
-        <v>519</v>
       </c>
       <c r="G220">
         <v>2015</v>
@@ -13684,16 +13692,16 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B221" t="s">
+        <v>55</v>
+      </c>
+      <c r="D221" t="s">
         <v>56</v>
       </c>
-      <c r="D221" t="s">
+      <c r="F221" t="s">
         <v>57</v>
-      </c>
-      <c r="F221" t="s">
-        <v>58</v>
       </c>
       <c r="G221">
         <v>2015</v>
@@ -13731,16 +13739,16 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>520</v>
+      </c>
+      <c r="B222" t="s">
+        <v>55</v>
+      </c>
+      <c r="D222" t="s">
         <v>521</v>
       </c>
-      <c r="B222" t="s">
-        <v>56</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="F222" t="s">
         <v>522</v>
-      </c>
-      <c r="F222" t="s">
-        <v>523</v>
       </c>
       <c r="G222">
         <v>2015</v>
@@ -13778,16 +13786,16 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>523</v>
+      </c>
+      <c r="B223" t="s">
+        <v>648</v>
+      </c>
+      <c r="D223" t="s">
+        <v>43</v>
+      </c>
+      <c r="F223" t="s">
         <v>524</v>
-      </c>
-      <c r="B223" t="s">
-        <v>43</v>
-      </c>
-      <c r="D223" t="s">
-        <v>44</v>
-      </c>
-      <c r="F223" t="s">
-        <v>525</v>
       </c>
       <c r="G223">
         <v>2015</v>
@@ -13825,13 +13833,13 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>525</v>
+      </c>
+      <c r="B224" t="s">
+        <v>131</v>
+      </c>
+      <c r="F224" t="s">
         <v>526</v>
-      </c>
-      <c r="B224" t="s">
-        <v>132</v>
-      </c>
-      <c r="F224" t="s">
-        <v>527</v>
       </c>
       <c r="G224">
         <v>2016</v>
@@ -13863,16 +13871,16 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B225" t="s">
+        <v>55</v>
+      </c>
+      <c r="D225" t="s">
         <v>56</v>
       </c>
-      <c r="D225" t="s">
+      <c r="F225" t="s">
         <v>57</v>
-      </c>
-      <c r="F225" t="s">
-        <v>58</v>
       </c>
       <c r="G225">
         <v>2015</v>
@@ -13910,16 +13918,16 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B226" t="s">
+        <v>55</v>
+      </c>
+      <c r="D226" t="s">
         <v>56</v>
       </c>
-      <c r="D226" t="s">
+      <c r="F226" t="s">
         <v>57</v>
-      </c>
-      <c r="F226" t="s">
-        <v>58</v>
       </c>
       <c r="G226">
         <v>2015</v>
@@ -13957,16 +13965,16 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>529</v>
+      </c>
+      <c r="B227" t="s">
+        <v>648</v>
+      </c>
+      <c r="D227" t="s">
+        <v>337</v>
+      </c>
+      <c r="F227" t="s">
         <v>530</v>
-      </c>
-      <c r="B227" t="s">
-        <v>43</v>
-      </c>
-      <c r="D227" t="s">
-        <v>338</v>
-      </c>
-      <c r="F227" t="s">
-        <v>531</v>
       </c>
       <c r="G227">
         <v>2018</v>
@@ -13984,7 +13992,7 @@
         <v>32</v>
       </c>
       <c r="L227" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M227">
         <v>53</v>
@@ -14013,16 +14021,16 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>531</v>
+      </c>
+      <c r="B228" t="s">
+        <v>648</v>
+      </c>
+      <c r="D228" t="s">
+        <v>337</v>
+      </c>
+      <c r="F228" t="s">
         <v>532</v>
-      </c>
-      <c r="B228" t="s">
-        <v>43</v>
-      </c>
-      <c r="D228" t="s">
-        <v>338</v>
-      </c>
-      <c r="F228" t="s">
-        <v>533</v>
       </c>
       <c r="G228">
         <v>2019</v>
@@ -14040,7 +14048,7 @@
         <v>32</v>
       </c>
       <c r="L228" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M228">
         <v>55</v>
@@ -14066,16 +14074,16 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>533</v>
+      </c>
+      <c r="B229" t="s">
+        <v>648</v>
+      </c>
+      <c r="D229" t="s">
+        <v>43</v>
+      </c>
+      <c r="F229" t="s">
         <v>534</v>
-      </c>
-      <c r="B229" t="s">
-        <v>43</v>
-      </c>
-      <c r="D229" t="s">
-        <v>44</v>
-      </c>
-      <c r="F229" t="s">
-        <v>535</v>
       </c>
       <c r="G229">
         <v>2019</v>
@@ -14093,7 +14101,7 @@
         <v>32</v>
       </c>
       <c r="L229" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M229">
         <v>58</v>
@@ -14110,13 +14118,13 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>536</v>
+      </c>
+      <c r="B230" t="s">
+        <v>169</v>
+      </c>
+      <c r="F230" t="s">
         <v>537</v>
-      </c>
-      <c r="B230" t="s">
-        <v>170</v>
-      </c>
-      <c r="F230" t="s">
-        <v>538</v>
       </c>
       <c r="G230">
         <v>2019</v>
@@ -14125,16 +14133,16 @@
         <v>182</v>
       </c>
       <c r="I230" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J230" t="s">
         <v>33</v>
       </c>
       <c r="K230" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L230" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M230">
         <v>100</v>
@@ -14148,13 +14156,13 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>538</v>
+      </c>
+      <c r="B231" t="s">
+        <v>264</v>
+      </c>
+      <c r="F231" t="s">
         <v>539</v>
-      </c>
-      <c r="B231" t="s">
-        <v>265</v>
-      </c>
-      <c r="F231" t="s">
-        <v>540</v>
       </c>
       <c r="G231">
         <v>2019</v>
@@ -14172,7 +14180,7 @@
         <v>32</v>
       </c>
       <c r="L231" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M231">
         <v>32</v>
@@ -14189,16 +14197,16 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>540</v>
+      </c>
+      <c r="B232" t="s">
+        <v>214</v>
+      </c>
+      <c r="C232" t="s">
+        <v>264</v>
+      </c>
+      <c r="F232" t="s">
         <v>541</v>
-      </c>
-      <c r="B232" t="s">
-        <v>215</v>
-      </c>
-      <c r="C232" t="s">
-        <v>265</v>
-      </c>
-      <c r="F232" t="s">
-        <v>542</v>
       </c>
       <c r="G232">
         <v>2019</v>
@@ -14227,7 +14235,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B233" t="s">
         <v>24</v>
@@ -14236,7 +14244,7 @@
         <v>25</v>
       </c>
       <c r="F233" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G233">
         <v>2018</v>
@@ -14254,7 +14262,7 @@
         <v>33</v>
       </c>
       <c r="L233" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M233">
         <v>53</v>
@@ -14271,16 +14279,16 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>544</v>
+      </c>
+      <c r="B234" t="s">
+        <v>648</v>
+      </c>
+      <c r="D234" t="s">
+        <v>43</v>
+      </c>
+      <c r="F234" t="s">
         <v>545</v>
-      </c>
-      <c r="B234" t="s">
-        <v>43</v>
-      </c>
-      <c r="D234" t="s">
-        <v>44</v>
-      </c>
-      <c r="F234" t="s">
-        <v>546</v>
       </c>
       <c r="G234">
         <v>2017</v>
@@ -14303,16 +14311,16 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>546</v>
+      </c>
+      <c r="B235" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" t="s">
+        <v>52</v>
+      </c>
+      <c r="F235" t="s">
         <v>547</v>
-      </c>
-      <c r="B235" t="s">
-        <v>52</v>
-      </c>
-      <c r="D235" t="s">
-        <v>53</v>
-      </c>
-      <c r="F235" t="s">
-        <v>548</v>
       </c>
       <c r="G235">
         <v>2016</v>
@@ -14332,16 +14340,16 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>548</v>
+      </c>
+      <c r="B236" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" t="s">
+        <v>377</v>
+      </c>
+      <c r="F236" t="s">
         <v>549</v>
-      </c>
-      <c r="B236" t="s">
-        <v>52</v>
-      </c>
-      <c r="D236" t="s">
-        <v>378</v>
-      </c>
-      <c r="F236" t="s">
-        <v>550</v>
       </c>
       <c r="G236">
         <v>2015</v>
@@ -14373,20 +14381,20 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>550</v>
+      </c>
+      <c r="B237" t="s">
+        <v>648</v>
+      </c>
+      <c r="D237" t="s">
+        <v>43</v>
+      </c>
+      <c r="F237" t="s">
         <v>551</v>
-      </c>
-      <c r="B237" t="s">
-        <v>649</v>
-      </c>
-      <c r="F237" t="s">
-        <v>552</v>
       </c>
       <c r="G237">
         <v>2020</v>
       </c>
-      <c r="H237">
-        <v>100</v>
-      </c>
       <c r="M237">
         <v>26</v>
       </c>
@@ -14402,20 +14410,20 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>552</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" t="s">
+        <v>52</v>
+      </c>
+      <c r="F238" t="s">
         <v>553</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F238" t="s">
-        <v>554</v>
       </c>
       <c r="G238">
         <v>2020</v>
       </c>
-      <c r="H238">
-        <v>100</v>
-      </c>
       <c r="M238">
         <v>39</v>
       </c>
@@ -14443,20 +14451,17 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>554</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F239" t="s">
         <v>555</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F239" t="s">
-        <v>556</v>
       </c>
       <c r="G239">
         <v>2020</v>
       </c>
-      <c r="H239">
-        <v>100</v>
-      </c>
       <c r="M239">
         <v>88</v>
       </c>
@@ -14484,20 +14489,20 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>556</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D240" t="s">
+        <v>72</v>
+      </c>
+      <c r="F240" t="s">
         <v>557</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F240" t="s">
-        <v>558</v>
       </c>
       <c r="G240">
         <v>2020</v>
       </c>
-      <c r="H240">
-        <v>100</v>
-      </c>
       <c r="M240">
         <v>47</v>
       </c>
@@ -14525,20 +14530,17 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>558</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F241" t="s">
         <v>559</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F241" t="s">
-        <v>560</v>
       </c>
       <c r="G241">
         <v>2020</v>
       </c>
-      <c r="H241">
-        <v>100</v>
-      </c>
       <c r="M241">
         <v>52</v>
       </c>
@@ -14566,20 +14568,20 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>560</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D242" t="s">
+        <v>150</v>
+      </c>
+      <c r="F242" t="s">
         <v>561</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F242" t="s">
-        <v>562</v>
       </c>
       <c r="G242">
         <v>2020</v>
       </c>
-      <c r="H242">
-        <v>100</v>
-      </c>
       <c r="M242">
         <v>100</v>
       </c>
@@ -14604,20 +14606,20 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>562</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D243" t="s">
+        <v>52</v>
+      </c>
+      <c r="F243" t="s">
         <v>563</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F243" t="s">
-        <v>564</v>
       </c>
       <c r="G243">
         <v>2020</v>
       </c>
-      <c r="H243">
-        <v>100</v>
-      </c>
       <c r="M243">
         <v>37</v>
       </c>
@@ -14645,20 +14647,20 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>564</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>52</v>
+      </c>
+      <c r="F244" t="s">
         <v>565</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F244" t="s">
-        <v>566</v>
       </c>
       <c r="G244">
         <v>2020</v>
       </c>
-      <c r="H244">
-        <v>100</v>
-      </c>
       <c r="M244">
         <v>48</v>
       </c>
@@ -14686,20 +14688,20 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>566</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D245" t="s">
+        <v>93</v>
+      </c>
+      <c r="F245" t="s">
         <v>567</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F245" t="s">
-        <v>568</v>
       </c>
       <c r="G245">
         <v>2020</v>
       </c>
-      <c r="H245">
-        <v>100</v>
-      </c>
       <c r="M245">
         <v>48</v>
       </c>
@@ -14727,20 +14729,20 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>568</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D246" t="s">
+        <v>43</v>
+      </c>
+      <c r="F246" t="s">
         <v>569</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F246" t="s">
-        <v>570</v>
       </c>
       <c r="G246">
         <v>2020</v>
       </c>
-      <c r="H246">
-        <v>100</v>
-      </c>
       <c r="M246">
         <v>3</v>
       </c>
@@ -14768,20 +14770,20 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D247" t="s">
+        <v>25</v>
+      </c>
       <c r="F247" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G247">
         <v>2020</v>
       </c>
-      <c r="H247">
-        <v>100</v>
-      </c>
       <c r="M247">
         <v>91</v>
       </c>
@@ -14806,20 +14808,20 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D248" t="s">
+        <v>25</v>
+      </c>
       <c r="F248" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G248">
         <v>2020</v>
       </c>
-      <c r="H248">
-        <v>100</v>
-      </c>
       <c r="M248">
         <v>53</v>
       </c>
@@ -14847,20 +14849,17 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>574</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F249" t="s">
         <v>575</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F249" t="s">
-        <v>576</v>
       </c>
       <c r="G249">
         <v>2020</v>
       </c>
-      <c r="H249">
-        <v>100</v>
-      </c>
       <c r="M249">
         <v>0</v>
       </c>
@@ -14888,20 +14887,20 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>576</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D250" t="s">
+        <v>209</v>
+      </c>
+      <c r="F250" t="s">
         <v>577</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F250" t="s">
-        <v>578</v>
       </c>
       <c r="G250">
         <v>2020</v>
       </c>
-      <c r="H250">
-        <v>100</v>
-      </c>
       <c r="M250">
         <v>52</v>
       </c>
@@ -14929,20 +14928,17 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>578</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F251" t="s">
         <v>579</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="F251" t="s">
-        <v>580</v>
       </c>
       <c r="G251">
         <v>2020</v>
       </c>
-      <c r="H251">
-        <v>100</v>
-      </c>
       <c r="M251">
         <v>85</v>
       </c>
@@ -14970,20 +14966,20 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>580</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D252" t="s">
+        <v>93</v>
+      </c>
+      <c r="F252" t="s">
         <v>581</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F252" t="s">
-        <v>582</v>
       </c>
       <c r="G252">
         <v>2020</v>
       </c>
-      <c r="H252">
-        <v>100</v>
-      </c>
       <c r="M252">
         <v>52</v>
       </c>
@@ -15011,20 +15007,20 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
+      </c>
+      <c r="D253" t="s">
+        <v>43</v>
       </c>
       <c r="F253" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G253">
         <v>2020</v>
       </c>
-      <c r="H253">
-        <v>100</v>
-      </c>
       <c r="M253">
         <v>55</v>
       </c>
@@ -15037,20 +15033,20 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>583</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D254" t="s">
+        <v>52</v>
+      </c>
+      <c r="F254" t="s">
         <v>584</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F254" t="s">
-        <v>585</v>
       </c>
       <c r="G254">
         <v>2020</v>
       </c>
-      <c r="H254">
-        <v>100</v>
-      </c>
       <c r="M254">
         <v>31</v>
       </c>
@@ -15078,20 +15074,20 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>585</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D255" t="s">
+        <v>93</v>
+      </c>
+      <c r="F255" t="s">
         <v>586</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F255" t="s">
-        <v>587</v>
       </c>
       <c r="G255">
         <v>2020</v>
       </c>
-      <c r="H255">
-        <v>100</v>
-      </c>
       <c r="M255">
         <v>77</v>
       </c>
@@ -15119,20 +15115,17 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>587</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F256" t="s">
         <v>588</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F256" t="s">
-        <v>589</v>
       </c>
       <c r="G256">
         <v>2020</v>
       </c>
-      <c r="H256">
-        <v>100</v>
-      </c>
       <c r="M256">
         <v>13</v>
       </c>
@@ -15160,20 +15153,20 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>589</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D257" t="s">
+        <v>52</v>
+      </c>
+      <c r="F257" t="s">
         <v>590</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F257" t="s">
-        <v>591</v>
       </c>
       <c r="G257">
         <v>2020</v>
       </c>
-      <c r="H257">
-        <v>100</v>
-      </c>
       <c r="M257">
         <v>40</v>
       </c>
@@ -15201,20 +15194,20 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
+      </c>
+      <c r="D258" t="s">
+        <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G258">
         <v>2020</v>
       </c>
-      <c r="H258">
-        <v>100</v>
-      </c>
       <c r="M258">
         <v>54</v>
       </c>
@@ -15242,20 +15235,20 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>592</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D259" t="s">
+        <v>150</v>
+      </c>
+      <c r="F259" t="s">
         <v>593</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F259" t="s">
-        <v>594</v>
       </c>
       <c r="G259">
         <v>2020</v>
       </c>
-      <c r="H259">
-        <v>100</v>
-      </c>
       <c r="M259">
         <v>99</v>
       </c>
@@ -15283,20 +15276,20 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>594</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D260" t="s">
+        <v>68</v>
+      </c>
+      <c r="F260" t="s">
         <v>595</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F260" t="s">
-        <v>596</v>
       </c>
       <c r="G260">
         <v>2020</v>
       </c>
-      <c r="H260">
-        <v>100</v>
-      </c>
       <c r="M260">
         <v>46</v>
       </c>
@@ -15321,20 +15314,20 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>596</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D261" t="s">
+        <v>93</v>
+      </c>
+      <c r="F261" t="s">
         <v>597</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F261" t="s">
-        <v>598</v>
       </c>
       <c r="G261">
         <v>2020</v>
       </c>
-      <c r="H261">
-        <v>100</v>
-      </c>
       <c r="M261">
         <v>29</v>
       </c>
@@ -15362,20 +15355,20 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D262" t="s">
+        <v>120</v>
+      </c>
       <c r="F262" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G262">
         <v>2020</v>
       </c>
-      <c r="H262">
-        <v>100</v>
-      </c>
       <c r="M262">
         <v>85</v>
       </c>
@@ -15403,20 +15396,17 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>600</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F263" t="s">
         <v>601</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F263" t="s">
-        <v>602</v>
       </c>
       <c r="G263">
         <v>2020</v>
       </c>
-      <c r="H263">
-        <v>100</v>
-      </c>
       <c r="M263">
         <v>79</v>
       </c>
@@ -15444,20 +15434,20 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D264" t="s">
+        <v>61</v>
+      </c>
       <c r="F264" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G264">
         <v>2020</v>
       </c>
-      <c r="H264">
-        <v>100</v>
-      </c>
       <c r="M264">
         <v>42</v>
       </c>
@@ -15482,20 +15472,20 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>604</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D265" t="s">
+        <v>52</v>
+      </c>
+      <c r="F265" t="s">
         <v>605</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F265" t="s">
-        <v>606</v>
       </c>
       <c r="G265">
         <v>2020</v>
       </c>
-      <c r="H265">
-        <v>100</v>
-      </c>
       <c r="M265">
         <v>0</v>
       </c>
@@ -15523,20 +15513,17 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>606</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F266" t="s">
         <v>607</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F266" t="s">
-        <v>608</v>
       </c>
       <c r="G266">
         <v>2020</v>
       </c>
-      <c r="H266">
-        <v>100</v>
-      </c>
       <c r="M266">
         <v>66</v>
       </c>
@@ -15564,20 +15551,20 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>608</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D267" t="s">
+        <v>93</v>
+      </c>
+      <c r="F267" t="s">
         <v>609</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F267" t="s">
-        <v>610</v>
       </c>
       <c r="G267">
         <v>2020</v>
       </c>
-      <c r="H267">
-        <v>100</v>
-      </c>
       <c r="M267">
         <v>40</v>
       </c>
@@ -15605,20 +15592,20 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>610</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D268" t="s">
+        <v>52</v>
+      </c>
+      <c r="F268" t="s">
         <v>611</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F268" t="s">
-        <v>612</v>
       </c>
       <c r="G268">
         <v>2020</v>
       </c>
-      <c r="H268">
-        <v>100</v>
-      </c>
       <c r="M268">
         <v>57</v>
       </c>
@@ -15646,20 +15633,17 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F269" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G269">
         <v>2020</v>
       </c>
-      <c r="H269">
-        <v>100</v>
-      </c>
       <c r="M269">
         <v>76</v>
       </c>
@@ -15687,20 +15671,20 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D270" t="s">
         <v>52</v>
       </c>
       <c r="F270" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G270">
         <v>2020</v>
       </c>
-      <c r="H270">
-        <v>100</v>
-      </c>
       <c r="M270">
         <v>43</v>
       </c>
@@ -15728,20 +15712,20 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>615</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" t="s">
+        <v>52</v>
+      </c>
+      <c r="F271" t="s">
         <v>616</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F271" t="s">
-        <v>617</v>
       </c>
       <c r="G271">
         <v>2020</v>
       </c>
-      <c r="H271">
-        <v>100</v>
-      </c>
       <c r="M271">
         <v>48</v>
       </c>
@@ -15769,20 +15753,20 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>617</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D272" t="s">
+        <v>48</v>
+      </c>
+      <c r="F272" t="s">
         <v>618</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F272" t="s">
-        <v>619</v>
       </c>
       <c r="G272">
         <v>2020</v>
       </c>
-      <c r="H272">
-        <v>100</v>
-      </c>
       <c r="M272">
         <v>26</v>
       </c>
@@ -15810,20 +15794,20 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D273" t="s">
+        <v>72</v>
       </c>
       <c r="F273" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G273">
         <v>2020</v>
       </c>
-      <c r="H273">
-        <v>100</v>
-      </c>
       <c r="M273">
         <v>48</v>
       </c>
@@ -15851,20 +15835,20 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>620</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D274" t="s">
+        <v>93</v>
+      </c>
+      <c r="F274" t="s">
         <v>621</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F274" t="s">
-        <v>622</v>
       </c>
       <c r="G274">
         <v>2020</v>
       </c>
-      <c r="H274">
-        <v>100</v>
-      </c>
       <c r="M274">
         <v>52</v>
       </c>
@@ -15892,20 +15876,20 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D275" t="s">
+        <v>209</v>
       </c>
       <c r="F275" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G275">
         <v>2020</v>
       </c>
-      <c r="H275">
-        <v>100</v>
-      </c>
       <c r="M275">
         <v>41</v>
       </c>
@@ -15933,20 +15917,20 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D276" t="s">
+        <v>25</v>
+      </c>
       <c r="F276" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G276">
         <v>2020</v>
       </c>
-      <c r="H276">
-        <v>100</v>
-      </c>
       <c r="M276">
         <v>50</v>
       </c>
@@ -15974,20 +15958,20 @@
     </row>
     <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>625</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D277" t="s">
+        <v>52</v>
+      </c>
+      <c r="F277" t="s">
         <v>626</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F277" t="s">
-        <v>627</v>
       </c>
       <c r="G277">
         <v>2020</v>
       </c>
-      <c r="H277">
-        <v>100</v>
-      </c>
       <c r="M277">
         <v>37</v>
       </c>
@@ -16015,20 +15999,17 @@
     </row>
     <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>627</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F278" t="s">
         <v>628</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F278" t="s">
-        <v>629</v>
       </c>
       <c r="G278">
         <v>2020</v>
       </c>
-      <c r="H278">
-        <v>100</v>
-      </c>
       <c r="M278">
         <v>73</v>
       </c>
@@ -16056,20 +16037,20 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>629</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D279" t="s">
+        <v>150</v>
+      </c>
+      <c r="F279" t="s">
         <v>630</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F279" t="s">
-        <v>631</v>
       </c>
       <c r="G279">
         <v>2020</v>
       </c>
-      <c r="H279">
-        <v>100</v>
-      </c>
       <c r="M279">
         <v>99</v>
       </c>
@@ -16097,20 +16078,20 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D280" t="s">
+        <v>150</v>
       </c>
       <c r="F280" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G280">
         <v>2020</v>
       </c>
-      <c r="H280">
-        <v>100</v>
-      </c>
       <c r="M280">
         <v>99</v>
       </c>
@@ -16138,20 +16119,20 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D281" t="s">
+        <v>25</v>
+      </c>
       <c r="F281" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G281">
         <v>2020</v>
       </c>
-      <c r="H281">
-        <v>100</v>
-      </c>
       <c r="M281">
         <v>94</v>
       </c>
@@ -16179,20 +16160,20 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>633</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F282" t="s">
         <v>634</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F282" t="s">
-        <v>635</v>
       </c>
       <c r="G282">
         <v>2020</v>
       </c>
-      <c r="H282">
-        <v>100</v>
-      </c>
       <c r="M282">
         <v>37</v>
       </c>
@@ -16220,20 +16201,20 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D283" t="s">
+        <v>284</v>
+      </c>
       <c r="F283" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G283">
         <v>2020</v>
       </c>
-      <c r="H283">
-        <v>100</v>
-      </c>
       <c r="M283">
         <v>0</v>
       </c>
@@ -16261,20 +16242,20 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D284" t="s">
+        <v>120</v>
+      </c>
       <c r="F284" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G284">
         <v>2020</v>
       </c>
-      <c r="H284">
-        <v>100</v>
-      </c>
       <c r="M284">
         <v>87</v>
       </c>
@@ -16302,20 +16283,17 @@
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>639</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F285" t="s">
         <v>640</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F285" t="s">
-        <v>641</v>
       </c>
       <c r="G285">
         <v>2020</v>
       </c>
-      <c r="H285">
-        <v>100</v>
-      </c>
       <c r="M285">
         <v>63</v>
       </c>
@@ -16343,20 +16321,17 @@
     </row>
     <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>641</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F286" t="s">
         <v>642</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F286" t="s">
-        <v>643</v>
       </c>
       <c r="G286">
         <v>2020</v>
       </c>
-      <c r="H286">
-        <v>100</v>
-      </c>
       <c r="M286">
         <v>84</v>
       </c>
@@ -16384,20 +16359,20 @@
     </row>
     <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D287" t="s">
+        <v>231</v>
+      </c>
       <c r="F287" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G287">
         <v>2020</v>
       </c>
-      <c r="H287">
-        <v>100</v>
-      </c>
       <c r="M287">
         <v>67</v>
       </c>
@@ -16425,20 +16400,20 @@
     </row>
     <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>644</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D288" t="s">
+        <v>52</v>
+      </c>
+      <c r="F288" t="s">
         <v>645</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F288" t="s">
-        <v>646</v>
       </c>
       <c r="G288">
         <v>2020</v>
       </c>
-      <c r="H288">
-        <v>100</v>
-      </c>
       <c r="M288">
         <v>40</v>
       </c>
@@ -16463,19 +16438,19 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
+        <v>646</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D289" t="s">
+        <v>93</v>
+      </c>
+      <c r="F289" t="s">
         <v>647</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F289" t="s">
-        <v>648</v>
       </c>
       <c r="G289">
         <v>2020</v>
-      </c>
-      <c r="H289">
-        <v>100</v>
       </c>
       <c r="M289">
         <v>48</v>

--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3858147-67AF-FC41-9903-AD6599A59A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91FA6CD-0E9D-154D-B9AA-5CB9D30C38C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDA_Drug_Trials_Snapshots_2015-" sheetId="1" r:id="rId1"/>
@@ -2846,11 +2846,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="O237" sqref="O237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2929,7 +2930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -5492,7 +5493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5689,7 +5690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>213</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>216</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>219</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -6916,7 +6917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>225</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>227</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>233</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>235</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>238</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>240</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>242</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>244</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>246</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>250</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>259</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>261</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -7972,7 +7973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>269</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>274</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>276</v>
       </c>
@@ -8172,7 +8173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>277</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>281</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>283</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>286</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>290</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>292</v>
       </c>
@@ -8525,7 +8526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>294</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>297</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>298</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>300</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>302</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>303</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>305</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>307</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>309</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>311</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>313</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>314</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>316</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>318</v>
       </c>
@@ -9228,7 +9229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>320</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>322</v>
       </c>
@@ -9337,7 +9338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>324</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>326</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>328</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>330</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>334</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>336</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>339</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>341</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>343</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>345</v>
       </c>
@@ -9836,7 +9837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>346</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>348</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>349</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>352</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>354</v>
       </c>
@@ -10059,7 +10060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>356</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>358</v>
       </c>
@@ -10150,7 +10151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>360</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>362</v>
       </c>
@@ -10232,7 +10233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>364</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>366</v>
       </c>
@@ -10326,7 +10327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>368</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>372</v>
       </c>
@@ -10426,7 +10427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>373</v>
       </c>
@@ -10482,7 +10483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>376</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>240</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>380</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>382</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>385</v>
       </c>
@@ -10708,7 +10709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>387</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>389</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>392</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>394</v>
       </c>
@@ -10902,7 +10903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>398</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>400</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>402</v>
       </c>
@@ -11043,7 +11044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>405</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>407</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>409</v>
       </c>
@@ -11181,7 +11182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>411</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>413</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>416</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>418</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>420</v>
       </c>
@@ -11446,7 +11447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>422</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>424</v>
       </c>
@@ -11558,7 +11559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>426</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>428</v>
       </c>
@@ -11640,7 +11641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>430</v>
       </c>
@@ -11678,7 +11679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>432</v>
       </c>
@@ -11725,7 +11726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>434</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>437</v>
       </c>
@@ -11816,7 +11817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>439</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>441</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>443</v>
       </c>
@@ -11957,7 +11958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>444</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>446</v>
       </c>
@@ -12051,7 +12052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>448</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>450</v>
       </c>
@@ -12133,7 +12134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>451</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>454</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>456</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>458</v>
       </c>
@@ -12312,7 +12313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>460</v>
       </c>
@@ -12359,7 +12360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>462</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>464</v>
       </c>
@@ -12456,7 +12457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>466</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>468</v>
       </c>
@@ -12559,7 +12560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>470</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>472</v>
       </c>
@@ -12659,7 +12660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>474</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>476</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>478</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>480</v>
       </c>
@@ -12856,7 +12857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>482</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>484</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>487</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>489</v>
       </c>
@@ -13038,7 +13039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>491</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>493</v>
       </c>
@@ -13135,7 +13136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>495</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>497</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>499</v>
       </c>
@@ -13267,7 +13268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>501</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>503</v>
       </c>
@@ -13367,7 +13368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>505</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>506</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>508</v>
       </c>
@@ -13508,7 +13509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>510</v>
       </c>
@@ -13555,7 +13556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>513</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>515</v>
       </c>
@@ -13643,7 +13644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>517</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -13737,7 +13738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>520</v>
       </c>
@@ -13784,7 +13785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>523</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>525</v>
       </c>
@@ -13869,7 +13870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>527</v>
       </c>
@@ -13916,7 +13917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>528</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>529</v>
       </c>
@@ -14019,7 +14020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>531</v>
       </c>
@@ -14072,7 +14073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>533</v>
       </c>
@@ -14116,7 +14117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>536</v>
       </c>
@@ -14154,7 +14155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>538</v>
       </c>
@@ -14195,7 +14196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>540</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>542</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>544</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>546</v>
       </c>
@@ -14338,7 +14339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>548</v>
       </c>
@@ -16466,7 +16467,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W289" xr:uid="{68FD4857-663E-6E4A-9157-D170B6554CAB}"/>
+  <autoFilter ref="A1:W289" xr:uid="{68FD4857-663E-6E4A-9157-D170B6554CAB}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="2020"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91FA6CD-0E9D-154D-B9AA-5CB9D30C38C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04494FF6-2A56-C344-B370-95A39E7DDD9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2846,12 +2846,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O237" sqref="O237"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2930,7 +2929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -5746,7 +5745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -6402,7 +6401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>206</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>213</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>216</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>219</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>225</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>227</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>233</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>235</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>238</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>240</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>242</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>244</v>
       </c>
@@ -7423,7 +7422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>246</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>250</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>252</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>257</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>259</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>261</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>269</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>274</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>276</v>
       </c>
@@ -8173,7 +8172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>277</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>281</v>
       </c>
@@ -8276,7 +8275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>283</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>286</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>290</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>292</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>294</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>297</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>298</v>
       </c>
@@ -8697,7 +8696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>300</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>302</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>303</v>
       </c>
@@ -8832,7 +8831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>305</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>307</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>309</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>311</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>313</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>314</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>316</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>318</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>320</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>322</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>324</v>
       </c>
@@ -9394,7 +9393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>326</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>328</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>330</v>
       </c>
@@ -9529,7 +9528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>334</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>336</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>339</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>341</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>343</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>345</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>346</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>348</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>349</v>
       </c>
@@ -9966,7 +9965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>352</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>354</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>356</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>358</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>360</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>362</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>364</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>366</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>368</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>372</v>
       </c>
@@ -10427,7 +10426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>373</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>376</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>240</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>380</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>382</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>385</v>
       </c>
@@ -10709,7 +10708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>387</v>
       </c>
@@ -10750,7 +10749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>389</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>392</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>394</v>
       </c>
@@ -10903,7 +10902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>398</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>400</v>
       </c>
@@ -10997,7 +10996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>402</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>405</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>407</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>409</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>411</v>
       </c>
@@ -11238,7 +11237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>413</v>
       </c>
@@ -11297,7 +11296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>416</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>418</v>
       </c>
@@ -11394,7 +11393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>420</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>422</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>424</v>
       </c>
@@ -11559,7 +11558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>426</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>428</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>430</v>
       </c>
@@ -11679,7 +11678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>432</v>
       </c>
@@ -11726,7 +11725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>434</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>437</v>
       </c>
@@ -11817,7 +11816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>439</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>441</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>443</v>
       </c>
@@ -11958,7 +11957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>444</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>446</v>
       </c>
@@ -12052,7 +12051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>448</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>450</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>451</v>
       </c>
@@ -12181,7 +12180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>454</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>456</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>458</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>460</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>462</v>
       </c>
@@ -12407,7 +12406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>464</v>
       </c>
@@ -12457,7 +12456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>466</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>468</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>470</v>
       </c>
@@ -12604,7 +12603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>472</v>
       </c>
@@ -12660,7 +12659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>474</v>
       </c>
@@ -12707,7 +12706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>476</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>478</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>480</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>482</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>484</v>
       </c>
@@ -12951,7 +12950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>487</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>489</v>
       </c>
@@ -13039,7 +13038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>491</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>493</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>495</v>
       </c>
@@ -13174,7 +13173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>497</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>499</v>
       </c>
@@ -13268,7 +13267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>501</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>503</v>
       </c>
@@ -13368,7 +13367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>505</v>
       </c>
@@ -13406,7 +13405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>506</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>508</v>
       </c>
@@ -13509,7 +13508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>510</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>513</v>
       </c>
@@ -13600,7 +13599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>515</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>517</v>
       </c>
@@ -13691,7 +13690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -13738,7 +13737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>520</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>523</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>525</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>527</v>
       </c>
@@ -13917,7 +13916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>528</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>529</v>
       </c>
@@ -14020,7 +14019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>531</v>
       </c>
@@ -14073,7 +14072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>533</v>
       </c>
@@ -14117,7 +14116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>536</v>
       </c>
@@ -14155,7 +14154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>538</v>
       </c>
@@ -14196,7 +14195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>540</v>
       </c>
@@ -14234,7 +14233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>542</v>
       </c>
@@ -14278,7 +14277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>544</v>
       </c>
@@ -14310,7 +14309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>546</v>
       </c>
@@ -14339,7 +14338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>548</v>
       </c>
@@ -16467,13 +16466,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W289" xr:uid="{68FD4857-663E-6E4A-9157-D170B6554CAB}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="2020"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W289" xr:uid="{68FD4857-663E-6E4A-9157-D170B6554CAB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04494FF6-2A56-C344-B370-95A39E7DDD9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2F9151-D087-D249-B8A0-52CC4B818B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2848,13 +2848,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N229" sqref="N229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677BA25-21F1-8340-873E-53E14ECA4D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B060FD-E37D-DA40-98C4-7187246B7721}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2850,7 +2850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FDA_Drug_Trials_Snapshots_2015-20.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B060FD-E37D-DA40-98C4-7187246B7721}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF1EA7-68A1-A34E-82DE-874A8F94368B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,9 +1296,6 @@
     <t xml:space="preserve">Treatment of mantle cell lymphoma </t>
   </si>
   <si>
-    <t>I-5EBIC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Treatment of myelofibrosis </t>
   </si>
   <si>
@@ -1984,6 +1981,9 @@
   </si>
   <si>
     <t>Urology</t>
+  </si>
+  <si>
+    <t>INREBIC</t>
   </si>
 </sst>
 </file>
@@ -2485,12 +2485,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2846,11 +2847,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W289"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2859,7 +2861,7 @@
     <col min="6" max="6" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2974,18 +2976,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G3">
         <v>2020</v>
@@ -3015,7 +3017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3059,7 +3061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>373</v>
       </c>
@@ -3115,9 +3117,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>51</v>
@@ -3126,7 +3128,7 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G6">
         <v>2020</v>
@@ -3153,7 +3155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3197,65 +3199,72 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G8">
         <v>2019</v>
       </c>
       <c r="H8">
-        <v>654</v>
+        <v>295</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
       </c>
       <c r="M8">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="N8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="V8">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Z8">
+        <f>(O8/100)*H8</f>
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -3306,18 +3315,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D10" t="s">
         <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G10">
         <v>2018</v>
@@ -3362,9 +3371,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -3403,7 +3412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -3459,9 +3468,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>51</v>
@@ -3470,7 +3479,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G13">
         <v>2020</v>
@@ -3500,7 +3509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3544,74 +3553,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>2019</v>
       </c>
       <c r="H15">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N15">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z15">
+        <f>(O15/100)*H15</f>
+        <v>120.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G16">
         <v>2018</v>
@@ -3656,9 +3666,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
@@ -3667,7 +3677,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G17">
         <v>2020</v>
@@ -3697,7 +3707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -3744,60 +3754,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="G19">
         <v>2019</v>
       </c>
       <c r="H19">
-        <v>334</v>
+        <v>2420</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
         <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N19">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z20" si="0">(O19/100)*H19</f>
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -3852,8 +3866,12 @@
       <c r="W20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3897,7 +3915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -3953,18 +3971,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D23" t="s">
         <v>337</v>
       </c>
       <c r="F23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G23">
         <v>2019</v>
@@ -4006,7 +4024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -4062,7 +4080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -4115,7 +4133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>376</v>
       </c>
@@ -4171,7 +4189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -4215,7 +4233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>380</v>
       </c>
@@ -4259,18 +4277,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G29">
         <v>2018</v>
@@ -4315,9 +4333,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -4326,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G30">
         <v>2020</v>
@@ -4356,18 +4374,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B31" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G31">
         <v>2018</v>
@@ -4412,7 +4430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -4468,7 +4486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -4515,27 +4533,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="F34" t="s">
-        <v>226</v>
+        <v>329</v>
       </c>
       <c r="G34">
         <v>2019</v>
       </c>
       <c r="H34">
-        <v>1509</v>
+        <v>1459</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
         <v>33</v>
@@ -4547,33 +4562,37 @@
         <v>115</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N34">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S34">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="W34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z34">
+        <f>(O34/100)*H34</f>
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>92</v>
@@ -4582,7 +4601,7 @@
         <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G35">
         <v>2020</v>
@@ -4612,15 +4631,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G36">
         <v>2020</v>
@@ -4650,7 +4669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -4706,9 +4725,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>418</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
@@ -4717,57 +4736,58 @@
         <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>419</v>
       </c>
       <c r="G38">
         <v>2019</v>
       </c>
       <c r="H38">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J38" t="s">
         <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>375</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>12</v>
-      </c>
-      <c r="Q38">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S38">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="V38">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z38">
+        <f>(O38/100)*H38</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>51</v>
@@ -4776,7 +4796,7 @@
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G39">
         <v>2020</v>
@@ -4806,24 +4826,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="G40">
         <v>2019</v>
       </c>
       <c r="H40">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="I40" t="s">
         <v>32</v>
@@ -4832,54 +4852,58 @@
         <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="M40">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="N40">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P40">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="Q40">
         <v>3</v>
       </c>
       <c r="S40">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="V40">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="W40" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z40">
+        <f t="shared" ref="Z40:Z43" si="1">(O40/100)*H40</f>
+        <v>36.720000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="G41">
         <v>2019</v>
       </c>
       <c r="H41">
-        <v>441</v>
+        <v>818</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
@@ -4894,140 +4918,152 @@
         <v>32</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N41">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="O41">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S41">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="W41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="1"/>
+        <v>613.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G42">
         <v>2019</v>
       </c>
       <c r="H42">
-        <v>216</v>
+        <v>1692</v>
       </c>
       <c r="I42" t="s">
         <v>32</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K42" t="s">
         <v>32</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N42">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S42">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="V42">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="W42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z42">
+        <f t="shared" si="1"/>
+        <v>253.79999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="G43">
         <v>2019</v>
       </c>
       <c r="H43">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
         <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M43">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="N43">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O43">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z43">
+        <f t="shared" si="1"/>
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -5071,9 +5107,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>51</v>
@@ -5082,7 +5118,7 @@
         <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G45">
         <v>2020</v>
@@ -5112,15 +5148,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G46">
         <v>2020</v>
@@ -5150,9 +5186,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
@@ -5161,7 +5197,7 @@
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G47">
         <v>2020</v>
@@ -5191,24 +5227,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>288</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="G48">
         <v>2019</v>
       </c>
       <c r="H48">
-        <v>510</v>
+        <v>11273</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
         <v>33</v>
@@ -5217,48 +5256,52 @@
         <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N48">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>10</v>
       </c>
       <c r="Q48">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="V48">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z48">
+        <f t="shared" ref="Z48:Z49" si="2">(O48/100)*H48</f>
+        <v>225.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="F49" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G49">
         <v>2019</v>
       </c>
       <c r="H49">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
@@ -5273,39 +5316,43 @@
         <v>70</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N49">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O49">
         <v>2</v>
       </c>
       <c r="P49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="V49">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="W49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="2"/>
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>264</v>
       </c>
       <c r="F50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G50">
         <v>2020</v>
@@ -5335,7 +5382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -5376,9 +5423,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -5387,7 +5434,7 @@
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G52">
         <v>2020</v>
@@ -5417,7 +5464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -5473,9 +5520,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>51</v>
@@ -5484,7 +5531,7 @@
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G54">
         <v>2020</v>
@@ -5514,7 +5561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -5567,7 +5614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -5623,9 +5670,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
@@ -5634,7 +5681,7 @@
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G57">
         <v>2020</v>
@@ -5664,9 +5711,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>51</v>
@@ -5675,7 +5722,7 @@
         <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G58">
         <v>2020</v>
@@ -5705,9 +5752,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>51</v>
@@ -5716,7 +5763,7 @@
         <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G59">
         <v>2020</v>
@@ -5746,7 +5793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -5805,9 +5852,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
@@ -5816,7 +5863,7 @@
         <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G61">
         <v>2020</v>
@@ -5846,7 +5893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -5905,15 +5952,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G63">
         <v>2020</v>
@@ -5943,12 +5990,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C64" t="s">
         <v>267</v>
@@ -5990,63 +6037,67 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="G65">
         <v>2019</v>
       </c>
       <c r="H65">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J65" t="s">
         <v>33</v>
       </c>
       <c r="K65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L65" t="s">
         <v>70</v>
       </c>
       <c r="M65">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="N65">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O65">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="P65">
+        <v>16</v>
+      </c>
+      <c r="Q65">
+        <v>9</v>
+      </c>
+      <c r="S65">
         <v>1</v>
       </c>
-      <c r="Q65">
-        <v>5</v>
-      </c>
-      <c r="S65">
-        <v>48</v>
-      </c>
       <c r="V65">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="W65" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z65">
+        <f>(O65/100)*H65</f>
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -6102,9 +6153,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B67" t="s">
         <v>51</v>
@@ -6113,10 +6164,10 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
+        <v>484</v>
+      </c>
+      <c r="F67" t="s">
         <v>485</v>
-      </c>
-      <c r="F67" t="s">
-        <v>486</v>
       </c>
       <c r="G67">
         <v>2017</v>
@@ -6149,9 +6200,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B68" t="s">
         <v>51</v>
@@ -6160,7 +6211,7 @@
         <v>377</v>
       </c>
       <c r="F68" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G68">
         <v>2017</v>
@@ -6193,9 +6244,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>24</v>
@@ -6204,7 +6255,7 @@
         <v>284</v>
       </c>
       <c r="F69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G69">
         <v>2020</v>
@@ -6234,63 +6285,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>649</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="G70">
         <v>2019</v>
       </c>
       <c r="H70">
-        <v>1651</v>
+        <v>192</v>
       </c>
       <c r="I70" t="s">
         <v>32</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K70" t="s">
         <v>32</v>
       </c>
       <c r="L70" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N70">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O70">
         <v>1</v>
       </c>
       <c r="P70">
-        <v>3</v>
-      </c>
-      <c r="Q70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W70" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z70">
+        <f>(O70/100)*H70</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>413</v>
       </c>
@@ -6349,7 +6401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>416</v>
       </c>
@@ -6390,63 +6442,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>422</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>648</v>
-      </c>
-      <c r="D73" t="s">
-        <v>337</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>423</v>
+        <v>112</v>
       </c>
       <c r="G73">
         <v>2019</v>
       </c>
       <c r="H73">
-        <v>430</v>
+        <v>1199</v>
       </c>
       <c r="I73" t="s">
         <v>32</v>
       </c>
       <c r="J73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K73" t="s">
         <v>32</v>
       </c>
       <c r="L73" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M73">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="N73">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="P73">
         <v>3</v>
       </c>
       <c r="Q73">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="S73">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="V73">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="W73" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z73">
+        <f>(O73/100)*H73</f>
+        <v>371.69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -6487,9 +6540,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>92</v>
@@ -6498,7 +6551,7 @@
         <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G75">
         <v>2020</v>
@@ -6528,7 +6581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -6584,65 +6637,66 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="G77">
         <v>2019</v>
       </c>
       <c r="H77">
-        <v>234</v>
+        <v>654</v>
       </c>
       <c r="I77" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J77" t="s">
         <v>33</v>
       </c>
       <c r="K77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L77" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="M77">
+        <v>91</v>
+      </c>
+      <c r="N77">
+        <v>84</v>
+      </c>
+      <c r="O77">
+        <v>8</v>
+      </c>
+      <c r="P77">
+        <v>2</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="V77">
         <v>100</v>
       </c>
-      <c r="N77">
-        <v>51</v>
-      </c>
-      <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>42</v>
-      </c>
-      <c r="Q77">
-        <v>6</v>
-      </c>
-      <c r="S77">
-        <v>26</v>
-      </c>
-      <c r="V77">
-        <v>35</v>
-      </c>
       <c r="W77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z77">
+        <f>(O77/100)*H77</f>
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>51</v>
@@ -6651,7 +6705,7 @@
         <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G78">
         <v>2020</v>
@@ -6681,9 +6735,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>51</v>
@@ -6692,7 +6746,7 @@
         <v>52</v>
       </c>
       <c r="F79" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G79">
         <v>2020</v>
@@ -6722,9 +6776,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>92</v>
@@ -6733,7 +6787,7 @@
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G80">
         <v>2020</v>
@@ -6763,9 +6817,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>51</v>
@@ -6774,7 +6828,7 @@
         <v>209</v>
       </c>
       <c r="F81" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G81">
         <v>2020</v>
@@ -6804,18 +6858,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B82" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D82" t="s">
         <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G82">
         <v>2017</v>
@@ -6848,24 +6902,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="G83">
         <v>2019</v>
       </c>
       <c r="H83">
-        <v>655</v>
+        <v>1651</v>
       </c>
       <c r="I83" t="s">
         <v>32</v>
@@ -6874,37 +6928,41 @@
         <v>33</v>
       </c>
       <c r="K83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L83" t="s">
         <v>70</v>
       </c>
       <c r="M83">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N83">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
         <v>3</v>
       </c>
-      <c r="P83">
-        <v>21</v>
-      </c>
       <c r="Q83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="W83" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z83">
+        <f>(O83/100)*H83</f>
+        <v>16.510000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -6960,9 +7018,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>51</v>
@@ -6971,7 +7029,7 @@
         <v>150</v>
       </c>
       <c r="F85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G85">
         <v>2020</v>
@@ -7001,12 +7059,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>204</v>
       </c>
       <c r="B86" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D86" t="s">
         <v>189</v>
@@ -7045,7 +7103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -7101,21 +7159,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="G88">
         <v>2019</v>
       </c>
       <c r="H88">
-        <v>1459</v>
+        <v>1160</v>
       </c>
       <c r="I88" t="s">
         <v>32</v>
@@ -7127,45 +7188,46 @@
         <v>32</v>
       </c>
       <c r="L88" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M88">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N88">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="O88">
         <v>1</v>
       </c>
       <c r="P88">
-        <v>11</v>
-      </c>
-      <c r="Q88">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="S88">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="V88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Z88">
+        <f>(O88/100)*H88</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B89" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D89" t="s">
         <v>337</v>
       </c>
       <c r="F89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G89">
         <v>2017</v>
@@ -7198,7 +7260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -7254,27 +7316,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B91" t="s">
-        <v>648</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F91" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G91">
         <v>2019</v>
       </c>
       <c r="H91">
-        <v>1289</v>
+        <v>1509</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="J91" t="s">
         <v>33</v>
@@ -7286,33 +7348,37 @@
         <v>115</v>
       </c>
       <c r="M91">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>79</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P91">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S91">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W91" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Z91">
+        <f>(O91/100)*H91</f>
+        <v>45.269999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>51</v>
@@ -7321,7 +7387,7 @@
         <v>150</v>
       </c>
       <c r="F92" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G92">
         <v>2020</v>
@@ -7351,15 +7417,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G93">
         <v>2020</v>
@@ -7389,21 +7455,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>29</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G94">
         <v>2019</v>
       </c>
       <c r="H94">
-        <v>622</v>
+        <v>182</v>
       </c>
       <c r="I94" t="s">
         <v>32</v>
@@ -7412,37 +7481,41 @@
         <v>33</v>
       </c>
       <c r="K94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L94" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M94">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N94">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="O94">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="P94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S94">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V94">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="W94" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z94">
+        <f>(O94/100)*H94</f>
+        <v>121.94000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -7483,9 +7556,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B96" t="s">
         <v>51</v>
@@ -7494,7 +7567,7 @@
         <v>377</v>
       </c>
       <c r="F96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G96">
         <v>2018</v>
@@ -7539,9 +7612,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
@@ -7550,7 +7623,7 @@
         <v>377</v>
       </c>
       <c r="F97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G97">
         <v>2018</v>
@@ -7595,63 +7668,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="F98" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="G98">
         <v>2019</v>
       </c>
       <c r="H98">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="I98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J98" t="s">
         <v>33</v>
       </c>
       <c r="K98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L98" t="s">
         <v>70</v>
       </c>
       <c r="M98">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="N98">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q98">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="V98">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="W98" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z98">
+        <f>(O98/100)*H98</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -7704,9 +7781,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>92</v>
@@ -7715,7 +7792,7 @@
         <v>93</v>
       </c>
       <c r="F100" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G100">
         <v>2020</v>
@@ -7745,9 +7822,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>92</v>
@@ -7756,7 +7833,7 @@
         <v>93</v>
       </c>
       <c r="F101" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G101">
         <v>2020</v>
@@ -7786,9 +7863,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>51</v>
@@ -7797,7 +7874,7 @@
         <v>150</v>
       </c>
       <c r="F102" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G102">
         <v>2020</v>
@@ -7827,9 +7904,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>51</v>
@@ -7838,7 +7915,7 @@
         <v>52</v>
       </c>
       <c r="F103" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G103">
         <v>2020</v>
@@ -7868,7 +7945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -7915,12 +7992,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>281</v>
       </c>
       <c r="B105" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D105" t="s">
         <v>189</v>
@@ -7959,24 +8036,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>51</v>
+      </c>
+      <c r="D106" t="s">
+        <v>150</v>
       </c>
       <c r="F106" t="s">
-        <v>170</v>
+        <v>412</v>
       </c>
       <c r="G106">
         <v>2019</v>
       </c>
       <c r="H106">
-        <v>1267</v>
+        <v>571</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J106" t="s">
         <v>33</v>
@@ -7991,30 +8071,34 @@
         <v>100</v>
       </c>
       <c r="N106">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="O106">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P106">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Q106">
+        <v>14</v>
+      </c>
+      <c r="S106">
+        <v>44</v>
+      </c>
+      <c r="V106">
         <v>9</v>
       </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <v>97</v>
-      </c>
       <c r="W106" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Z106">
+        <f>(O106/100)*H106</f>
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>24</v>
@@ -8023,7 +8107,7 @@
         <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G107">
         <v>2020</v>
@@ -8050,63 +8134,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D108" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="E108" t="s">
+        <v>217</v>
       </c>
       <c r="F108" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="G108">
         <v>2019</v>
       </c>
       <c r="H108">
-        <v>818</v>
+        <v>80</v>
       </c>
       <c r="I108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M108">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N108">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="O108">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q108">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S108">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V108">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="W108" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z108">
+        <f>(O108/100)*H108</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>195</v>
       </c>
@@ -8150,7 +8241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -8200,7 +8291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -8256,7 +8347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -8312,15 +8403,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F113" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G113">
         <v>2020</v>
@@ -8350,7 +8441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -8394,7 +8485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -8453,7 +8544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -8509,21 +8600,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>647</v>
+      </c>
+      <c r="D117" t="s">
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="G117">
         <v>2019</v>
       </c>
       <c r="H117">
-        <v>1606</v>
+        <v>109</v>
       </c>
       <c r="I117" t="s">
         <v>32</v>
@@ -8535,34 +8629,32 @@
         <v>32</v>
       </c>
       <c r="L117" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M117">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N117">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>3</v>
-      </c>
-      <c r="P117">
-        <v>17</v>
-      </c>
-      <c r="Q117">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="S117">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V117">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W117" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z117">
+        <f>(O117/100)*H117</f>
+        <v>82.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>230</v>
       </c>
@@ -8606,9 +8698,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>51</v>
@@ -8617,7 +8709,7 @@
         <v>52</v>
       </c>
       <c r="F119" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G119">
         <v>2020</v>
@@ -8647,7 +8739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>74</v>
       </c>
@@ -8703,12 +8795,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>155</v>
       </c>
       <c r="B121" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D121" t="s">
         <v>43</v>
@@ -8759,7 +8851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>238</v>
       </c>
@@ -8815,7 +8907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>256</v>
       </c>
@@ -8859,9 +8951,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>24</v>
@@ -8870,7 +8962,7 @@
         <v>120</v>
       </c>
       <c r="F124" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G124">
         <v>2020</v>
@@ -8900,7 +8992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>242</v>
       </c>
@@ -8944,21 +9036,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>29</v>
+      </c>
+      <c r="D126" t="s">
+        <v>101</v>
       </c>
       <c r="F126" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="G126">
         <v>2019</v>
       </c>
       <c r="H126">
-        <v>1692</v>
+        <v>336</v>
       </c>
       <c r="I126" t="s">
         <v>32</v>
@@ -8973,31 +9068,35 @@
         <v>32</v>
       </c>
       <c r="M126">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="N126">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="O126">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P126">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q126">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="V126">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="W126" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z126">
+        <f>(O126/100)*H126</f>
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>246</v>
       </c>
@@ -9038,7 +9137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -9094,7 +9193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>250</v>
       </c>
@@ -9138,27 +9237,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>647</v>
       </c>
       <c r="D130" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="F130" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="G130">
         <v>2019</v>
       </c>
       <c r="H130">
-        <v>571</v>
+        <v>430</v>
       </c>
       <c r="I130" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J130" t="s">
         <v>33</v>
@@ -9170,31 +9269,35 @@
         <v>70</v>
       </c>
       <c r="M130">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="N130">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O130">
         <v>1</v>
       </c>
       <c r="P130">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S130">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="V130">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W130" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z130">
+        <f>(O130/100)*H130</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -9250,71 +9353,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F132" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="G132">
         <v>2019</v>
       </c>
       <c r="H132">
-        <v>120</v>
+        <v>4439</v>
       </c>
       <c r="I132" t="s">
         <v>32</v>
       </c>
       <c r="J132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L132" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M132">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="N132">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S132">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V132">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="W132" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z132">
+        <f>(O132/100)*H132</f>
+        <v>799.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F133" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G133">
         <v>2020</v>
@@ -9344,68 +9451,69 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F134" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="G134">
         <v>2019</v>
       </c>
       <c r="H134">
-        <v>295</v>
+        <v>3141</v>
       </c>
       <c r="I134" t="s">
         <v>32</v>
       </c>
       <c r="J134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K134" t="s">
         <v>32</v>
       </c>
       <c r="L134" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M134">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="N134">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O134">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P134">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q134">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="S134">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="V134">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="W134" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z134">
+        <f>(O134/100)*H134</f>
+        <v>188.45999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>298</v>
       </c>
       <c r="B135" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D135" t="s">
         <v>43</v>
@@ -9456,7 +9564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>261</v>
       </c>
@@ -9509,68 +9617,72 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="F137" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="G137">
         <v>2019</v>
       </c>
       <c r="H137">
-        <v>2423</v>
+        <v>355</v>
       </c>
       <c r="I137" t="s">
         <v>32</v>
       </c>
       <c r="J137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L137" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M137">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="N137">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="O137">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P137">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Q137">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="S137">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="V137">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="W137" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z137">
+        <f>(O137/100)*H137</f>
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>79</v>
       </c>
       <c r="B138" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D138" t="s">
         <v>43</v>
@@ -9609,27 +9721,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>283</v>
+        <v>500</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="F139" t="s">
-        <v>285</v>
+        <v>501</v>
       </c>
       <c r="G139">
         <v>2019</v>
       </c>
       <c r="H139">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="I139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J139" t="s">
         <v>33</v>
@@ -9641,31 +9753,32 @@
         <v>70</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N139">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="O139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P139">
-        <v>6</v>
-      </c>
-      <c r="Q139">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V139">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="W139" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z139">
+        <f>(O139/100)*H139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>271</v>
       </c>
@@ -9709,7 +9822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -9768,60 +9881,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="B142" t="s">
         <v>131</v>
       </c>
       <c r="F142" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="G142">
         <v>2019</v>
       </c>
       <c r="H142">
-        <v>2420</v>
+        <v>1606</v>
       </c>
       <c r="I142" t="s">
         <v>32</v>
       </c>
       <c r="J142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K142" t="s">
         <v>32</v>
       </c>
       <c r="L142" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M142">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N142">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O142">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q142">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S142">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V142">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W142" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z142">
+        <f>(O142/100)*H142</f>
+        <v>48.18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -9880,12 +9997,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D144" t="s">
         <v>43</v>
@@ -9924,63 +10041,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B145" t="s">
-        <v>55</v>
-      </c>
-      <c r="D145" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F145" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="G145">
         <v>2019</v>
       </c>
       <c r="H145">
-        <v>247</v>
+        <v>622</v>
       </c>
       <c r="I145" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K145" t="s">
         <v>32</v>
       </c>
       <c r="L145" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M145">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="N145">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="O145">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q145">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="S145">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V145">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="W145" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z145">
+        <f>(O145/100)*H145</f>
+        <v>111.96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>286</v>
       </c>
@@ -10036,65 +10154,63 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>313</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F147" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="G147">
         <v>2019</v>
       </c>
       <c r="H147">
-        <v>4439</v>
+        <v>510</v>
       </c>
       <c r="I147" t="s">
         <v>32</v>
       </c>
       <c r="J147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K147" t="s">
         <v>32</v>
       </c>
       <c r="L147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M147">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="N147">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="O147">
-        <v>18</v>
-      </c>
-      <c r="P147">
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="S147">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V147">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="W147" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z147">
+        <f>(O147/100)*H147</f>
+        <v>5.1000000000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>24</v>
@@ -10103,7 +10219,7 @@
         <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G148">
         <v>2020</v>
@@ -10133,9 +10249,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>24</v>
@@ -10144,7 +10260,7 @@
         <v>120</v>
       </c>
       <c r="F149" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G149">
         <v>2020</v>
@@ -10174,15 +10290,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F150" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G150">
         <v>2020</v>
@@ -10212,7 +10328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>290</v>
       </c>
@@ -10253,7 +10369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>292</v>
       </c>
@@ -10294,7 +10410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -10353,7 +10469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>297</v>
       </c>
@@ -10409,18 +10525,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G155">
         <v>2020</v>
@@ -10450,12 +10566,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D156" t="s">
         <v>48</v>
@@ -10506,7 +10622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>300</v>
       </c>
@@ -10550,7 +10666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>302</v>
       </c>
@@ -10594,24 +10710,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D159" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="G159">
         <v>2019</v>
       </c>
       <c r="H159">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I159" t="s">
         <v>32</v>
@@ -10623,31 +10739,38 @@
         <v>33</v>
       </c>
       <c r="L159" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M159">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N159">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="O159">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="P159">
+        <v>3</v>
       </c>
       <c r="Q159">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S159">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V159">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W159" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z159">
+        <f>(O159/100)*H159</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>305</v>
       </c>
@@ -10700,12 +10823,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>98</v>
       </c>
       <c r="B161" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D161" t="s">
         <v>48</v>
@@ -10756,21 +10879,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B162" t="s">
-        <v>96</v>
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>120</v>
       </c>
       <c r="F162" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="G162">
         <v>2019</v>
       </c>
       <c r="H162">
-        <v>3141</v>
+        <v>2423</v>
       </c>
       <c r="I162" t="s">
         <v>32</v>
@@ -10785,31 +10911,35 @@
         <v>32</v>
       </c>
       <c r="M162">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N162">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O162">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q162">
+        <v>15</v>
+      </c>
+      <c r="S162">
+        <v>3</v>
+      </c>
+      <c r="V162">
+        <v>100</v>
+      </c>
+      <c r="W162" t="s">
         <v>27</v>
       </c>
-      <c r="S162">
-        <v>20</v>
-      </c>
-      <c r="V162">
-        <v>26</v>
-      </c>
-      <c r="W162" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z162">
+        <f>(O162/100)*H162</f>
+        <v>363.45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>311</v>
       </c>
@@ -10862,12 +10992,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>316</v>
       </c>
       <c r="B164" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D164" t="s">
         <v>43</v>
@@ -10906,12 +11036,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>183</v>
       </c>
       <c r="B165" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D165" t="s">
         <v>48</v>
@@ -10962,60 +11092,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="F166" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="G166">
         <v>2019</v>
       </c>
       <c r="H166">
-        <v>1199</v>
+        <v>1267</v>
       </c>
       <c r="I166" t="s">
         <v>32</v>
       </c>
       <c r="J166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K166" t="s">
         <v>32</v>
       </c>
       <c r="L166" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M166">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N166">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O166">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="P166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q166">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S166">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V166">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W166" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z166">
+        <f>(O166/100)*H166</f>
+        <v>152.04</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>318</v>
       </c>
@@ -11059,18 +11193,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D168" t="s">
         <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G168">
         <v>2020</v>
@@ -11100,7 +11234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>320</v>
       </c>
@@ -11156,7 +11290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>322</v>
       </c>
@@ -11209,7 +11343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>324</v>
       </c>
@@ -11265,12 +11399,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>389</v>
       </c>
       <c r="B172" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D172" t="s">
         <v>43</v>
@@ -11321,71 +11455,72 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
-      </c>
-      <c r="C173" t="s">
-        <v>288</v>
+        <v>158</v>
+      </c>
+      <c r="D173" t="s">
+        <v>159</v>
       </c>
       <c r="F173" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="G173">
         <v>2019</v>
       </c>
       <c r="H173">
-        <v>11273</v>
+        <v>441</v>
       </c>
       <c r="I173" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J173" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K173" t="s">
         <v>32</v>
       </c>
       <c r="L173" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M173">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N173">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O173">
-        <v>2</v>
-      </c>
-      <c r="P173">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q173">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="S173">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="W173" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z173">
+        <f>(O173/100)*H173</f>
+        <v>61.740000000000009</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G174">
         <v>2020</v>
@@ -11415,7 +11550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>330</v>
       </c>
@@ -11456,7 +11591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>332</v>
       </c>
@@ -11497,7 +11632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>334</v>
       </c>
@@ -11541,15 +11676,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F178" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G178">
         <v>2020</v>
@@ -11579,12 +11714,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>235</v>
       </c>
       <c r="B179" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D179" t="s">
         <v>43</v>
@@ -11635,15 +11770,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>577</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F180" t="s">
         <v>578</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="F180" t="s">
-        <v>579</v>
       </c>
       <c r="G180">
         <v>2020</v>
@@ -11673,18 +11808,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D181" t="s">
         <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G181">
         <v>2020</v>
@@ -11714,7 +11849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>341</v>
       </c>
@@ -11752,7 +11887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>343</v>
       </c>
@@ -11793,7 +11928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>345</v>
       </c>
@@ -11834,7 +11969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>346</v>
       </c>
@@ -11872,7 +12007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>348</v>
       </c>
@@ -11916,54 +12051,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="B187" t="s">
         <v>158</v>
       </c>
       <c r="D187" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="F187" t="s">
-        <v>351</v>
+        <v>474</v>
       </c>
       <c r="G187">
         <v>2015</v>
       </c>
       <c r="H187">
+        <v>8442</v>
+      </c>
+      <c r="M187">
+        <v>22</v>
+      </c>
+      <c r="N187">
+        <v>66</v>
+      </c>
+      <c r="O187">
+        <v>5</v>
+      </c>
+      <c r="P187">
+        <v>18</v>
+      </c>
+      <c r="R187">
+        <v>11</v>
+      </c>
+      <c r="S187">
         <v>49</v>
       </c>
-      <c r="M187">
-        <v>49</v>
-      </c>
-      <c r="N187">
-        <v>90</v>
-      </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-      <c r="P187">
-        <v>4</v>
-      </c>
-      <c r="R187">
-        <v>6</v>
-      </c>
-      <c r="S187">
-        <v>0</v>
-      </c>
       <c r="T187">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U187">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W187" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>352</v>
       </c>
@@ -12010,7 +12145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>354</v>
       </c>
@@ -12057,7 +12192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>356</v>
       </c>
@@ -12095,27 +12230,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>501</v>
+        <v>283</v>
       </c>
       <c r="B191" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="F191" t="s">
-        <v>502</v>
+        <v>285</v>
       </c>
       <c r="G191">
         <v>2019</v>
       </c>
       <c r="H191">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="I191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J191" t="s">
         <v>33</v>
@@ -12127,30 +12262,37 @@
         <v>70</v>
       </c>
       <c r="M191">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P191">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="Q191">
+        <v>16</v>
       </c>
       <c r="S191">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V191">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="W191" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Z191">
+        <f>(O191/100)*H191</f>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>51</v>
@@ -12159,7 +12301,7 @@
         <v>68</v>
       </c>
       <c r="F192" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G192">
         <v>2020</v>
@@ -12186,9 +12328,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>24</v>
@@ -12197,7 +12339,7 @@
         <v>61</v>
       </c>
       <c r="F193" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G193">
         <v>2020</v>
@@ -12224,24 +12366,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
-      </c>
-      <c r="D194" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F194" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="G194">
         <v>2019</v>
       </c>
       <c r="H194">
-        <v>1160</v>
+        <v>266</v>
       </c>
       <c r="I194" t="s">
         <v>32</v>
@@ -12250,34 +12389,35 @@
         <v>33</v>
       </c>
       <c r="K194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L194" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="M194">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N194">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O194">
-        <v>1</v>
-      </c>
-      <c r="P194">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="V194">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W194" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z194">
+        <f>(O194/100)*H194</f>
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>368</v>
       </c>
@@ -12330,7 +12470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>382</v>
       </c>
@@ -12374,7 +12514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>385</v>
       </c>
@@ -12412,7 +12552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>387</v>
       </c>
@@ -12453,7 +12593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>392</v>
       </c>
@@ -12500,57 +12640,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B200" t="s">
         <v>158</v>
       </c>
-      <c r="C200" t="s">
-        <v>395</v>
-      </c>
       <c r="D200" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F200" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G200">
         <v>2015</v>
       </c>
       <c r="H200">
-        <v>123</v>
+        <v>6505</v>
       </c>
       <c r="M200">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N200">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O200">
         <v>1</v>
       </c>
       <c r="P200">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R200">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="T200">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="U200">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="W200" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -12597,7 +12734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -12644,54 +12781,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="B203" t="s">
         <v>158</v>
       </c>
       <c r="D203" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="G203">
         <v>2015</v>
       </c>
       <c r="H203">
-        <v>6505</v>
+        <v>11145</v>
       </c>
       <c r="M203">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N203">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O203">
+        <v>3</v>
+      </c>
+      <c r="P203">
+        <v>3</v>
+      </c>
+      <c r="R203">
         <v>1</v>
       </c>
-      <c r="P203">
+      <c r="S203">
+        <v>48</v>
+      </c>
+      <c r="T203">
+        <v>18</v>
+      </c>
+      <c r="U203">
         <v>8</v>
-      </c>
-      <c r="R203">
-        <v>2</v>
-      </c>
-      <c r="S203">
-        <v>38</v>
-      </c>
-      <c r="T203">
-        <v>11</v>
-      </c>
-      <c r="U203">
-        <v>3</v>
       </c>
       <c r="W203" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>405</v>
       </c>
@@ -12735,7 +12872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -12782,27 +12919,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>418</v>
+        <v>244</v>
       </c>
       <c r="B206" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>68</v>
-      </c>
-      <c r="E206" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="F206" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="G206">
         <v>2019</v>
       </c>
       <c r="H206">
-        <v>118</v>
+        <v>655</v>
       </c>
       <c r="I206" t="s">
         <v>32</v>
@@ -12811,89 +12945,103 @@
         <v>33</v>
       </c>
       <c r="K206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L206" t="s">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="M206">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N206">
+        <v>74</v>
+      </c>
+      <c r="O206">
+        <v>3</v>
+      </c>
+      <c r="P206">
         <v>21</v>
       </c>
-      <c r="O206">
-        <v>1</v>
-      </c>
-      <c r="P206">
-        <v>76</v>
+      <c r="Q206">
+        <v>7</v>
       </c>
       <c r="S206">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="W206" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z206">
+        <f t="shared" ref="Z206:Z207" si="3">(O206/100)*H206</f>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>211</v>
       </c>
       <c r="B207" t="s">
-        <v>51</v>
+        <v>647</v>
       </c>
       <c r="D207" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>421</v>
+        <v>212</v>
       </c>
       <c r="G207">
         <v>2019</v>
       </c>
       <c r="H207">
-        <v>192</v>
+        <v>1289</v>
       </c>
       <c r="I207" t="s">
         <v>32</v>
       </c>
       <c r="J207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K207" t="s">
         <v>32</v>
       </c>
       <c r="L207" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M207">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N207">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O207">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P207">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="Q207">
+        <v>8</v>
       </c>
       <c r="S207">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V207">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W207" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="Z207">
+        <f t="shared" si="3"/>
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B208" t="s">
         <v>51</v>
@@ -12905,7 +13053,7 @@
         <v>128</v>
       </c>
       <c r="F208" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G208">
         <v>2018</v>
@@ -12947,9 +13095,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B209" t="s">
         <v>51</v>
@@ -12958,7 +13106,7 @@
         <v>209</v>
       </c>
       <c r="F209" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G209">
         <v>2018</v>
@@ -13000,9 +13148,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B210" t="s">
         <v>51</v>
@@ -13011,7 +13159,7 @@
         <v>150</v>
       </c>
       <c r="F210" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G210">
         <v>2015</v>
@@ -13047,9 +13195,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B211" t="s">
         <v>51</v>
@@ -13058,7 +13206,7 @@
         <v>52</v>
       </c>
       <c r="F211" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G211">
         <v>2015</v>
@@ -13094,9 +13242,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B212" t="s">
         <v>51</v>
@@ -13105,7 +13253,7 @@
         <v>377</v>
       </c>
       <c r="F212" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G212">
         <v>2015</v>
@@ -13141,9 +13289,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B213" t="s">
         <v>51</v>
@@ -13152,7 +13300,7 @@
         <v>209</v>
       </c>
       <c r="F213" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G213">
         <v>2015</v>
@@ -13188,9 +13336,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B214" t="s">
         <v>51</v>
@@ -13199,7 +13347,7 @@
         <v>209</v>
       </c>
       <c r="F214" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G214">
         <v>2015</v>
@@ -13235,18 +13383,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B215" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D215" t="s">
         <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G215">
         <v>2015</v>
@@ -13282,18 +13430,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B216" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D216" t="s">
         <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G216">
         <v>2015</v>
@@ -13329,9 +13477,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>51</v>
@@ -13340,7 +13488,7 @@
         <v>52</v>
       </c>
       <c r="F217" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G217">
         <v>2020</v>
@@ -13367,7 +13515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>274</v>
       </c>
@@ -13411,21 +13559,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="B219" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="D219" t="s">
+        <v>72</v>
       </c>
       <c r="F219" t="s">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="G219">
         <v>2019</v>
       </c>
       <c r="H219">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="I219" t="s">
         <v>32</v>
@@ -13434,31 +13585,41 @@
         <v>33</v>
       </c>
       <c r="K219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L219" t="s">
         <v>70</v>
       </c>
       <c r="M219">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N219">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="O219">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="P219">
+        <v>1</v>
+      </c>
+      <c r="Q219">
+        <v>5</v>
       </c>
       <c r="S219">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="V219">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="W219" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z219">
+        <f>(O219/100)*H219</f>
+        <v>34.340000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>360</v>
       </c>
@@ -13499,7 +13660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>362</v>
       </c>
@@ -13540,7 +13701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>364</v>
       </c>
@@ -13587,7 +13748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>366</v>
       </c>
@@ -13634,7 +13795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>372</v>
       </c>
@@ -13681,9 +13842,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B225" t="s">
         <v>92</v>
@@ -13692,7 +13853,7 @@
         <v>93</v>
       </c>
       <c r="F225" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G225">
         <v>2017</v>
@@ -13722,9 +13883,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B226" t="s">
         <v>24</v>
@@ -13733,7 +13894,7 @@
         <v>25</v>
       </c>
       <c r="F226" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G226">
         <v>2016</v>
@@ -13763,15 +13924,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B227" t="s">
         <v>131</v>
       </c>
       <c r="F227" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G227">
         <v>2016</v>
@@ -13801,9 +13962,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B228" t="s">
         <v>92</v>
@@ -13812,7 +13973,7 @@
         <v>93</v>
       </c>
       <c r="F228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G228">
         <v>2015</v>
@@ -13850,43 +14011,43 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="B229" t="s">
         <v>158</v>
       </c>
       <c r="D229" t="s">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="G229">
         <v>2015</v>
       </c>
       <c r="H229">
-        <v>1156</v>
+        <v>3752</v>
       </c>
       <c r="M229">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N229">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="O229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P229">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S229">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="T229">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U229">
         <v>1</v>
@@ -13895,15 +14056,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B230" t="s">
         <v>369</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G230">
         <v>2015</v>
@@ -13939,7 +14100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>219</v>
       </c>
@@ -13980,7 +14141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>227</v>
       </c>
@@ -14024,7 +14185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>229</v>
       </c>
@@ -14071,15 +14232,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B234" t="s">
         <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G234">
         <v>2018</v>
@@ -14121,9 +14282,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B235" t="s">
         <v>131</v>
@@ -14159,9 +14320,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B236" t="s">
         <v>92</v>
@@ -14170,7 +14331,7 @@
         <v>272</v>
       </c>
       <c r="F236" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G236">
         <v>2016</v>
@@ -14200,9 +14361,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B237" t="s">
         <v>24</v>
@@ -14241,18 +14402,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B238" t="s">
         <v>369</v>
       </c>
       <c r="C238" t="s">
+        <v>451</v>
+      </c>
+      <c r="F238" t="s">
         <v>452</v>
-      </c>
-      <c r="F238" t="s">
-        <v>453</v>
       </c>
       <c r="G238">
         <v>2015</v>
@@ -14290,60 +14451,63 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B239" t="s">
         <v>158</v>
       </c>
+      <c r="C239" t="s">
+        <v>395</v>
+      </c>
       <c r="D239" t="s">
         <v>396</v>
       </c>
       <c r="F239" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G239">
         <v>2015</v>
       </c>
       <c r="H239">
-        <v>11145</v>
+        <v>8292</v>
       </c>
       <c r="M239">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N239">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P239">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="R239">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S239">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="T239">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U239">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W239" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B240" t="s">
         <v>96</v>
       </c>
       <c r="F240" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G240">
         <v>2015</v>
@@ -14379,7 +14543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>146</v>
       </c>
@@ -14420,7 +14584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>148</v>
       </c>
@@ -14467,12 +14631,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>407</v>
       </c>
       <c r="B243" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D243" t="s">
         <v>189</v>
@@ -14514,9 +14678,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B244" t="s">
         <v>92</v>
@@ -14525,7 +14689,7 @@
         <v>272</v>
       </c>
       <c r="F244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G244">
         <v>2016</v>
@@ -14557,7 +14721,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="B245" t="s">
         <v>158</v>
@@ -14569,37 +14733,37 @@
         <v>396</v>
       </c>
       <c r="F245" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="G245">
         <v>2015</v>
       </c>
       <c r="H245">
-        <v>8292</v>
+        <v>123</v>
       </c>
       <c r="M245">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N245">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P245">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="R245">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S245">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="T245">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="U245">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="W245" t="s">
         <v>27</v>
@@ -14607,7 +14771,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>468</v>
+        <v>349</v>
       </c>
       <c r="B246" t="s">
         <v>158</v>
@@ -14616,48 +14780,48 @@
         <v>350</v>
       </c>
       <c r="F246" t="s">
-        <v>469</v>
+        <v>351</v>
       </c>
       <c r="G246">
         <v>2015</v>
       </c>
       <c r="H246">
-        <v>3752</v>
+        <v>49</v>
       </c>
       <c r="M246">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N246">
         <v>90</v>
       </c>
       <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
         <v>4</v>
       </c>
-      <c r="P246">
-        <v>3</v>
-      </c>
       <c r="R246">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S246">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="T246">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W246" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>326</v>
       </c>
       <c r="B247" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D247" t="s">
         <v>43</v>
@@ -14693,12 +14857,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>336</v>
       </c>
       <c r="B248" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D248" t="s">
         <v>337</v>
@@ -14742,46 +14906,46 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B249" t="s">
         <v>158</v>
       </c>
       <c r="D249" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="F249" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G249">
         <v>2015</v>
       </c>
       <c r="H249">
-        <v>8442</v>
+        <v>4177</v>
       </c>
       <c r="M249">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N249">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O249">
         <v>5</v>
       </c>
       <c r="P249">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R249">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S249">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="T249">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="U249">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W249" t="s">
         <v>27</v>
@@ -14789,43 +14953,43 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="B250" t="s">
         <v>158</v>
       </c>
       <c r="D250" t="s">
-        <v>350</v>
+        <v>434</v>
       </c>
       <c r="F250" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="G250">
         <v>2015</v>
       </c>
       <c r="H250">
-        <v>4177</v>
+        <v>1156</v>
       </c>
       <c r="M250">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N250">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O250">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P250">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R250">
         <v>2</v>
       </c>
       <c r="S250">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="T250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U250">
         <v>1</v>
@@ -14834,7 +14998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>109</v>
       </c>
@@ -14875,12 +15039,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>307</v>
       </c>
       <c r="B252" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D252" t="s">
         <v>189</v>
@@ -14916,7 +15080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>85</v>
       </c>
@@ -14954,9 +15118,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B254" t="s">
         <v>92</v>
@@ -14965,7 +15129,7 @@
         <v>93</v>
       </c>
       <c r="F254" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G254">
         <v>2015</v>
@@ -15001,7 +15165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>81</v>
       </c>
@@ -15042,15 +15206,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B256" t="s">
         <v>169</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G256">
         <v>2015</v>
@@ -15086,15 +15250,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B257" t="s">
         <v>131</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G257">
         <v>2015</v>
@@ -15130,9 +15294,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B258" t="s">
         <v>29</v>
@@ -15141,7 +15305,7 @@
         <v>101</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G258">
         <v>2018</v>
@@ -15183,15 +15347,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B259" t="s">
         <v>214</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G259">
         <v>2016</v>
@@ -15221,7 +15385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>71</v>
       </c>
@@ -15268,12 +15432,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D261" t="s">
         <v>43</v>
@@ -15315,9 +15479,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B262" t="s">
         <v>92</v>
@@ -15326,7 +15490,7 @@
         <v>93</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G262">
         <v>2015</v>
@@ -15353,9 +15517,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B263" t="s">
         <v>92</v>
@@ -15364,7 +15528,7 @@
         <v>93</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G263">
         <v>2015</v>
@@ -15400,7 +15564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>50</v>
       </c>
@@ -15447,15 +15611,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B265" t="s">
         <v>96</v>
       </c>
       <c r="F265" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G265">
         <v>2016</v>
@@ -15485,9 +15649,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B266" t="s">
         <v>92</v>
@@ -15496,7 +15660,7 @@
         <v>93</v>
       </c>
       <c r="F266" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G266">
         <v>2015</v>
@@ -15532,18 +15696,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B267" t="s">
         <v>55</v>
       </c>
       <c r="D267" t="s">
+        <v>510</v>
+      </c>
+      <c r="F267" t="s">
         <v>511</v>
-      </c>
-      <c r="F267" t="s">
-        <v>512</v>
       </c>
       <c r="G267">
         <v>2015</v>
@@ -15579,15 +15743,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B268" t="s">
         <v>36</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G268">
         <v>2015</v>
@@ -15623,12 +15787,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>188</v>
       </c>
       <c r="B269" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D269" t="s">
         <v>189</v>
@@ -15664,12 +15828,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>177</v>
       </c>
       <c r="B270" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D270" t="s">
         <v>48</v>
@@ -15711,9 +15875,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B271" t="s">
         <v>55</v>
@@ -15758,18 +15922,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B272" t="s">
         <v>55</v>
       </c>
       <c r="D272" t="s">
+        <v>520</v>
+      </c>
+      <c r="F272" t="s">
         <v>521</v>
-      </c>
-      <c r="F272" t="s">
-        <v>522</v>
       </c>
       <c r="G272">
         <v>2015</v>
@@ -15805,12 +15969,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>175</v>
       </c>
       <c r="B273" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D273" t="s">
         <v>43</v>
@@ -15846,15 +16010,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B274" t="s">
         <v>131</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G274">
         <v>2016</v>
@@ -15884,9 +16048,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B275" t="s">
         <v>55</v>
@@ -15931,9 +16095,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B276" t="s">
         <v>55</v>
@@ -15978,62 +16142,72 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B277" t="s">
-        <v>648</v>
+        <v>55</v>
       </c>
       <c r="D277" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F277" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G277">
         <v>2019</v>
       </c>
       <c r="H277">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="I277" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K277" t="s">
         <v>32</v>
       </c>
       <c r="L277" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M277">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="N277">
+        <v>61</v>
+      </c>
+      <c r="O277">
+        <v>36</v>
+      </c>
+      <c r="P277">
         <v>1</v>
       </c>
-      <c r="O277">
-        <v>76</v>
+      <c r="Q277">
+        <v>17</v>
       </c>
       <c r="S277">
         <v>0</v>
       </c>
       <c r="V277">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W277" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Z277">
+        <f>(O277/100)*H277</f>
+        <v>88.92</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>47</v>
       </c>
       <c r="B278" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D278" t="s">
         <v>48</v>
@@ -16075,18 +16249,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B279" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D279" t="s">
         <v>43</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G279">
         <v>2019</v>
@@ -16104,7 +16278,7 @@
         <v>32</v>
       </c>
       <c r="L279" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M279">
         <v>58</v>
@@ -16119,15 +16293,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B280" t="s">
         <v>169</v>
       </c>
       <c r="F280" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G280">
         <v>2019</v>
@@ -16142,10 +16316,10 @@
         <v>33</v>
       </c>
       <c r="K280" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L280" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M280">
         <v>100</v>
@@ -16157,15 +16331,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B281" t="s">
         <v>264</v>
       </c>
       <c r="F281" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G281">
         <v>2019</v>
@@ -16183,7 +16357,7 @@
         <v>32</v>
       </c>
       <c r="L281" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M281">
         <v>32</v>
@@ -16198,9 +16372,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B282" t="s">
         <v>214</v>
@@ -16209,7 +16383,7 @@
         <v>264</v>
       </c>
       <c r="F282" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G282">
         <v>2019</v>
@@ -16236,9 +16410,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B283" t="s">
         <v>24</v>
@@ -16247,7 +16421,7 @@
         <v>25</v>
       </c>
       <c r="F283" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G283">
         <v>2018</v>
@@ -16265,7 +16439,7 @@
         <v>33</v>
       </c>
       <c r="L283" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M283">
         <v>53</v>
@@ -16280,18 +16454,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B284" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D284" t="s">
         <v>43</v>
       </c>
       <c r="F284" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G284">
         <v>2017</v>
@@ -16312,9 +16486,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B285" t="s">
         <v>51</v>
@@ -16323,7 +16497,7 @@
         <v>52</v>
       </c>
       <c r="F285" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G285">
         <v>2016</v>
@@ -16341,9 +16515,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B286" t="s">
         <v>51</v>
@@ -16352,7 +16526,7 @@
         <v>377</v>
       </c>
       <c r="F286" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G286">
         <v>2015</v>
@@ -16382,18 +16556,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B287" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D287" t="s">
         <v>43</v>
       </c>
       <c r="F287" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G287">
         <v>2020</v>
@@ -16411,18 +16585,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D288" t="s">
         <v>43</v>
       </c>
       <c r="F288" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G288">
         <v>2020</v>
@@ -16437,9 +16611,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>92</v>
@@ -16448,7 +16622,7 @@
         <v>93</v>
       </c>
       <c r="F289" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G289">
         <v>2020</v>
@@ -16466,10 +16640,30 @@
         <v>39</v>
       </c>
     </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z292" s="5">
+        <f>SUM(Z8:Z277)</f>
+        <v>4174.93</v>
+      </c>
+      <c r="AA292">
+        <f>Z292/Z293</f>
+        <v>9.2245299277491782E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z293">
+        <v>45259</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W289" xr:uid="{68FD4857-663E-6E4A-9157-D170B6554CAB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W289">
-      <sortCondition ref="Q1:Q289"/>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cardiovascular Diseases"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A173:W250">
+      <sortCondition ref="M1:M289"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
